--- a/results/resultsDwg.xlsx
+++ b/results/resultsDwg.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -429,13 +429,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>24.12606812724482</v>
+        <v>5.499559799734492</v>
       </c>
       <c r="F2">
-        <v>43.01490000000003</v>
+        <v>110.3084</v>
       </c>
       <c r="G2">
-        <v>3.761546567300181</v>
+        <v>4.70328007929809</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -452,13 +452,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11.96941394602459</v>
+        <v>4.862806372923105</v>
       </c>
       <c r="F3">
-        <v>197.7015</v>
+        <v>182.3177</v>
       </c>
       <c r="G3">
-        <v>5.286758317401202</v>
+        <v>5.20575076967576</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>32.56436843238451</v>
+        <v>7.208790910217862</v>
       </c>
       <c r="F4">
-        <v>54.8809</v>
+        <v>179.2462</v>
       </c>
       <c r="G4">
-        <v>4.005165382700071</v>
+        <v>5.188760279812898</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>19.70534279157461</v>
+        <v>6.738687873765687</v>
       </c>
       <c r="F5">
         <v>153.4924</v>
@@ -512,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>38.36752202498447</v>
+        <v>15.37566223470216</v>
       </c>
       <c r="F6">
         <v>49.6541</v>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -544,13 +544,13 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>23.97110304753747</v>
+        <v>9.267816989804006</v>
       </c>
       <c r="F7">
-        <v>93.31489999999999</v>
+        <v>83.9725</v>
       </c>
       <c r="G7">
-        <v>4.535979794995447</v>
+        <v>4.430489364290089</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>18.46432834330068</v>
+        <v>5.952741952558664</v>
       </c>
       <c r="F8">
         <v>96.15370000000001</v>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>7.72367965601982</v>
+        <v>2.387551295565076</v>
       </c>
       <c r="F9">
         <v>48.5907</v>
@@ -604,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>16.56123730111453</v>
+        <v>7.581392153200484</v>
       </c>
       <c r="F10">
         <v>45.8028</v>
@@ -627,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -636,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>40.45823380334502</v>
+        <v>13.14521693838559</v>
       </c>
       <c r="F11">
         <v>41.0215</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>25.14864932089196</v>
+        <v>10.21325955490269</v>
       </c>
       <c r="F12">
         <v>117.9755</v>
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>16.25213823881749</v>
+        <v>5.888714435624997</v>
       </c>
       <c r="F13">
         <v>309.8063999999999</v>
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>17.66855273985791</v>
+        <v>6.289615094785585</v>
       </c>
       <c r="F14">
         <v>341.0163</v>
@@ -719,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -728,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>14.37764443870789</v>
+        <v>5.626986961249971</v>
       </c>
       <c r="F15">
         <v>102.4596</v>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -751,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>36.63688813508279</v>
+        <v>14.02275603607696</v>
       </c>
       <c r="F16">
         <v>124.9963</v>
@@ -765,7 +765,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -774,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>22.99674957280322</v>
+        <v>10.0576511745145</v>
       </c>
       <c r="F17">
-        <v>47.146</v>
+        <v>39.147</v>
       </c>
       <c r="G17">
-        <v>3.853249169849756</v>
+        <v>3.667323791148219</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -797,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>16.72449723887421</v>
+        <v>5.45206934187958</v>
       </c>
       <c r="F18">
         <v>162.7357</v>
@@ -811,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -820,13 +820,13 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>15.21119781213687</v>
+        <v>4.504491233455119</v>
       </c>
       <c r="F19">
-        <v>128.8005</v>
+        <v>125.4816</v>
       </c>
       <c r="G19">
-        <v>4.858264695650296</v>
+        <v>4.832159134277205</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,7 +834,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>22.77302391247592</v>
+        <v>10.71997967712378</v>
       </c>
       <c r="F20">
         <v>58.4853</v>
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>25.06016463290939</v>
+        <v>12.01020739063222</v>
       </c>
       <c r="F21">
-        <v>60.15670000000001</v>
+        <v>30.4858</v>
       </c>
       <c r="G21">
-        <v>4.09695282441366</v>
+        <v>3.417261001429755</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>16.09861693549157</v>
+        <v>8.69765092763909</v>
       </c>
       <c r="F22">
-        <v>108.3519</v>
+        <v>60.15670000000001</v>
       </c>
       <c r="G22">
-        <v>4.685384263592347</v>
+        <v>4.09695282441366</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>22.99781721909175</v>
+        <v>6.845959030997408</v>
       </c>
       <c r="F23">
-        <v>96.68560000000001</v>
+        <v>108.3519</v>
       </c>
       <c r="G23">
-        <v>4.571464477202904</v>
+        <v>4.685384263592347</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>19.22601501482956</v>
+        <v>8.072575184504698</v>
       </c>
       <c r="F24">
-        <v>65.61760000000001</v>
+        <v>96.68560000000001</v>
       </c>
       <c r="G24">
-        <v>4.183843952648925</v>
+        <v>4.571464477202904</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>18.39538373723202</v>
+        <v>7.854056330729034</v>
       </c>
       <c r="F25">
-        <v>46.7971</v>
+        <v>65.61760000000001</v>
       </c>
       <c r="G25">
-        <v>3.845821235191675</v>
+        <v>4.183843952648925</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>21.46070556203179</v>
+        <v>6.55175804511823</v>
       </c>
       <c r="F26">
-        <v>92.15310000000001</v>
+        <v>46.7971</v>
       </c>
       <c r="G26">
-        <v>4.523451324353032</v>
+        <v>3.845821235191675</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>17.43726423090362</v>
+        <v>8.05657344684022</v>
       </c>
       <c r="F27">
-        <v>86.91</v>
+        <v>24.8924</v>
       </c>
       <c r="G27">
-        <v>4.464873100449369</v>
+        <v>3.214562535997754</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>11.67227794846325</v>
+        <v>7.508297925139551</v>
       </c>
       <c r="F28">
-        <v>42.4834</v>
+        <v>92.15310000000001</v>
       </c>
       <c r="G28">
-        <v>3.749113411395624</v>
+        <v>4.523451324353032</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>16.98002652176273</v>
+        <v>6.438437642880476</v>
       </c>
       <c r="F29">
-        <v>66.7795</v>
+        <v>86.91</v>
       </c>
       <c r="G29">
-        <v>4.20139614721584</v>
+        <v>4.464873100449369</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>7.49398852869661</v>
+        <v>5.477645474213253</v>
       </c>
       <c r="F30">
-        <v>78.44599999999998</v>
+        <v>42.4834</v>
       </c>
       <c r="G30">
-        <v>4.362410489988739</v>
+        <v>3.749113411395624</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>16.40806098059358</v>
+        <v>26.87253961095874</v>
       </c>
       <c r="F31">
-        <v>163.7829</v>
+        <v>18.5212</v>
       </c>
       <c r="G31">
-        <v>5.098541770364973</v>
+        <v>2.918916021935355</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>9.363513211474832</v>
+        <v>5.139864235504609</v>
       </c>
       <c r="F32">
-        <v>73.4663</v>
+        <v>45.40479999999999</v>
       </c>
       <c r="G32">
-        <v>4.296826797672606</v>
+        <v>3.815617826330857</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>17.94814829725615</v>
+        <v>4.22699721480902</v>
       </c>
       <c r="F33">
-        <v>145.4427</v>
+        <v>106.1594000000001</v>
       </c>
       <c r="G33">
-        <v>4.979782194613289</v>
+        <v>4.664941738161711</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>9.26420843180146</v>
+        <v>5.099697709902927</v>
       </c>
       <c r="F34">
-        <v>241.6773</v>
+        <v>168.9935</v>
       </c>
       <c r="G34">
-        <v>5.487603365218593</v>
+        <v>5.129860252644948</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>12.30272000430799</v>
+        <v>5.240186963098562</v>
       </c>
       <c r="F35">
-        <v>190.6974</v>
+        <v>39.87730000000001</v>
       </c>
       <c r="G35">
-        <v>5.250687878533356</v>
+        <v>3.685807239692351</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <v>5</v>
       </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
       <c r="E36">
-        <v>13.98520508973004</v>
+        <v>6.941580343295782</v>
       </c>
       <c r="F36">
-        <v>77.63359999999999</v>
+        <v>73.28540000000001</v>
       </c>
       <c r="G36">
-        <v>4.352000323166909</v>
+        <v>4.294361407607235</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>8.510726257160156</v>
+        <v>3.104546112068172</v>
       </c>
       <c r="F37">
-        <v>76.83629999999999</v>
+        <v>9.973400000000002</v>
       </c>
       <c r="G37">
-        <v>4.341677184736846</v>
+        <v>2.299921548907804</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
       <c r="E38">
-        <v>15.9047173217216</v>
+        <v>6.163729553040468</v>
       </c>
       <c r="F38">
-        <v>129.7927</v>
+        <v>12.463</v>
       </c>
       <c r="G38">
-        <v>4.865938562318641</v>
+        <v>2.52276425484424</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>8</v>
       </c>
       <c r="E39">
-        <v>12.85118222786222</v>
+        <v>5.724250436831811</v>
       </c>
       <c r="F39">
-        <v>191.5773</v>
+        <v>92.63590000000002</v>
       </c>
       <c r="G39">
-        <v>5.255291382526276</v>
+        <v>4.528676755505058</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>23.27811679687173</v>
+        <v>7.335283268065345</v>
       </c>
       <c r="F40">
-        <v>72.887</v>
+        <v>30.751</v>
       </c>
       <c r="G40">
-        <v>4.288910296637933</v>
+        <v>3.425922514048956</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22.12037402002544</v>
+        <v>4.569044865771998</v>
       </c>
       <c r="F41">
-        <v>59.21180000000002</v>
+        <v>49.7358</v>
       </c>
       <c r="G41">
-        <v>4.081120846351831</v>
+        <v>3.906724995726846</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42">
-        <v>9.219863824493219</v>
+        <v>5.520305980587588</v>
       </c>
       <c r="F42">
-        <v>193.2362</v>
+        <v>48.34210000000002</v>
       </c>
       <c r="G42">
-        <v>5.263913274827154</v>
+        <v>3.878302816615572</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>10.12287619843626</v>
+        <v>3.884676391726787</v>
       </c>
       <c r="F43">
-        <v>91.35730000000002</v>
+        <v>53.85239999999999</v>
       </c>
       <c r="G43">
-        <v>4.514778192055928</v>
+        <v>3.986246970854388</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>24.70908350289245</v>
+        <v>4.742593543371395</v>
       </c>
       <c r="F44">
-        <v>53.4702</v>
+        <v>60.85520000000001</v>
       </c>
       <c r="G44">
-        <v>3.979124489368831</v>
+        <v>4.108497271821818</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
         <v>6</v>
       </c>
-      <c r="D45">
-        <v>7</v>
-      </c>
       <c r="E45">
-        <v>9.981373880477658</v>
+        <v>11.33727407175867</v>
       </c>
       <c r="F45">
-        <v>321.8335</v>
+        <v>27.9296</v>
       </c>
       <c r="G45">
-        <v>5.774034331066716</v>
+        <v>3.329687058336451</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>13.29901660628291</v>
+        <v>5.658956414298633</v>
       </c>
       <c r="F46">
-        <v>199.8239</v>
+        <v>56.19200000000001</v>
       </c>
       <c r="G46">
-        <v>5.297436478680217</v>
+        <v>4.028774398012652</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>30.59684981428806</v>
+        <v>5.355006734611161</v>
       </c>
       <c r="F47">
-        <v>135.3036</v>
+        <v>115.489</v>
       </c>
       <c r="G47">
-        <v>4.907521142361571</v>
+        <v>4.749175287331175</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>13.74303526717865</v>
+        <v>4.744442981799851</v>
       </c>
       <c r="F48">
-        <v>306.7476</v>
+        <v>17.2925</v>
       </c>
       <c r="G48">
-        <v>5.726025259599533</v>
+        <v>2.850272881492603</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>19.86623597126174</v>
+        <v>7.277304068624027</v>
       </c>
       <c r="F49">
-        <v>320.7718</v>
+        <v>14.6372</v>
       </c>
       <c r="G49">
-        <v>5.77072996689156</v>
+        <v>2.683566233410644</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>15.63783182637511</v>
+        <v>14.07929123932978</v>
       </c>
       <c r="F50">
-        <v>251.2358</v>
+        <v>11.269</v>
       </c>
       <c r="G50">
-        <v>5.526391940363181</v>
+        <v>2.422055592970212</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>9.976141486413455</v>
+        <v>6.536269697234959</v>
       </c>
       <c r="F51">
-        <v>100.7507</v>
+        <v>82.92650000000003</v>
       </c>
       <c r="G51">
-        <v>4.612649148693475</v>
+        <v>4.417954673303827</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>22.94173236544554</v>
+        <v>5.051255061113135</v>
       </c>
       <c r="F52">
-        <v>85.71490000000003</v>
+        <v>159.6970999999999</v>
       </c>
       <c r="G52">
-        <v>4.451026672801819</v>
+        <v>5.073278896007873</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>16.77813957050915</v>
+        <v>4.870323963119561</v>
       </c>
       <c r="F53">
-        <v>89.66429999999998</v>
+        <v>15.5999</v>
       </c>
       <c r="G53">
-        <v>4.496072696533355</v>
+        <v>2.747264503978535</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>16.35591123387744</v>
+        <v>6.72385106450545</v>
       </c>
       <c r="F54">
-        <v>64.78819999999999</v>
+        <v>18.10560000000001</v>
       </c>
       <c r="G54">
-        <v>4.171123488010804</v>
+        <v>2.896221282685057</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>29.23074389278353</v>
+        <v>8.20149137866404</v>
       </c>
       <c r="F55">
-        <v>65.65070000000001</v>
+        <v>53.4702</v>
       </c>
       <c r="G55">
-        <v>4.184348263296682</v>
+        <v>3.979124489368831</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>21.91645910204142</v>
+        <v>2.965996351305788</v>
       </c>
       <c r="F56">
-        <v>55.36120000000001</v>
+        <v>191.8604</v>
       </c>
       <c r="G56">
-        <v>4.013878987375064</v>
+        <v>5.256768024241167</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>14.38497122982865</v>
+        <v>5.462159731913236</v>
       </c>
       <c r="F57">
-        <v>82.0806</v>
+        <v>117.7436</v>
       </c>
       <c r="G57">
-        <v>4.407701691337262</v>
+        <v>4.768509378977766</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>21.02310386990468</v>
+        <v>9.807141259330017</v>
       </c>
       <c r="F58">
-        <v>152.3774</v>
+        <v>110.078</v>
       </c>
       <c r="G58">
-        <v>5.026360338292655</v>
+        <v>4.701189205415331</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>20.76845057127787</v>
+        <v>5.205813624651588</v>
       </c>
       <c r="F59">
-        <v>162.767</v>
+        <v>200.8036</v>
       </c>
       <c r="G59">
-        <v>5.092319730318768</v>
+        <v>5.302327315943717</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>16.15161598993626</v>
+        <v>5.957454014211175</v>
       </c>
       <c r="F60">
-        <v>81.23269999999999</v>
+        <v>250.0266</v>
       </c>
       <c r="G60">
-        <v>4.397317875461587</v>
+        <v>5.521567312202168</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>27.36033772680346</v>
+        <v>4.129199940350803</v>
       </c>
       <c r="F61">
-        <v>86.70910000000003</v>
+        <v>46.7325</v>
       </c>
       <c r="G61">
-        <v>4.462558837909531</v>
+        <v>3.84443985410435</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>21.18800076580996</v>
+        <v>5.320384665371931</v>
       </c>
       <c r="F62">
-        <v>358.9251</v>
+        <v>174.168</v>
       </c>
       <c r="G62">
-        <v>5.883113731623456</v>
+        <v>5.160020350643945</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>17.64569507928428</v>
+        <v>3.491384598927763</v>
       </c>
       <c r="F63">
-        <v>153.4061</v>
+        <v>55.1632</v>
       </c>
       <c r="G63">
-        <v>5.033088653461963</v>
+        <v>4.010296064295346</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>22.80083549886487</v>
+        <v>7.470438293247392</v>
       </c>
       <c r="F64">
-        <v>68.29109999999999</v>
+        <v>75.35880000000004</v>
       </c>
       <c r="G64">
-        <v>4.223779450618932</v>
+        <v>4.322260706574448</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>18.60830368639665</v>
+        <v>6.005983580228081</v>
       </c>
       <c r="F65">
-        <v>188.2735</v>
+        <v>60.4577</v>
       </c>
       <c r="G65">
-        <v>5.237895692886232</v>
+        <v>4.101943946947259</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
         <v>10</v>
       </c>
-      <c r="D66">
-        <v>7</v>
-      </c>
       <c r="E66">
-        <v>14.67742729567308</v>
+        <v>5.545553049698621</v>
       </c>
       <c r="F66">
-        <v>389.0132</v>
+        <v>20.9099</v>
       </c>
       <c r="G66">
-        <v>5.963613276204684</v>
+        <v>3.040222731028341</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>18.35550041472227</v>
+        <v>6.046118125900827</v>
       </c>
       <c r="F67">
-        <v>159.7623</v>
+        <v>46.98129999999996</v>
       </c>
       <c r="G67">
-        <v>5.073687085598822</v>
+        <v>3.849749650197432</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>24.93203444297038</v>
+        <v>3.761726037138215</v>
       </c>
       <c r="F68">
-        <v>156.8098</v>
+        <v>133.5261</v>
       </c>
       <c r="G68">
-        <v>5.055033605963263</v>
+        <v>4.894296964349548</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>23.71562194520213</v>
+        <v>6.683991702498807</v>
       </c>
       <c r="F69">
-        <v>65.20320000000001</v>
+        <v>122.0095</v>
       </c>
       <c r="G69">
-        <v>4.177508547482837</v>
+        <v>4.804098910554094</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>5.467157935116426</v>
+        <v>3.417035060856205</v>
       </c>
       <c r="F70">
-        <v>226.5258</v>
+        <v>90.47809999999996</v>
       </c>
       <c r="G70">
-        <v>5.422858845720914</v>
+        <v>4.505107832471554</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C71">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>32.35271020119843</v>
+        <v>8.421496967200465</v>
       </c>
       <c r="F71">
-        <v>91.092</v>
+        <v>27.2323</v>
       </c>
       <c r="G71">
-        <v>4.511869984822631</v>
+        <v>3.304403768781517</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E72">
-        <v>15.19370653578765</v>
+        <v>6.893371161714028</v>
       </c>
       <c r="F72">
-        <v>134.6875</v>
+        <v>15.4005</v>
       </c>
       <c r="G72">
-        <v>4.902957280298067</v>
+        <v>2.734399976424992</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E73">
-        <v>21.44964432393407</v>
+        <v>8.166193052756546</v>
       </c>
       <c r="F73">
-        <v>122.8874</v>
+        <v>28.22850000000001</v>
       </c>
       <c r="G73">
-        <v>4.811268488940295</v>
+        <v>3.340332105890881</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>16.21625112324077</v>
+        <v>2.672106952627844</v>
       </c>
       <c r="F74">
-        <v>72.00720000000001</v>
+        <v>35.0161</v>
       </c>
       <c r="G74">
-        <v>4.276766114016389</v>
+        <v>3.555807955721848</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>20.84220967181616</v>
+        <v>8.234281370504281</v>
       </c>
       <c r="F75">
-        <v>382.4699</v>
+        <v>8.4468</v>
       </c>
       <c r="G75">
-        <v>5.946649957359691</v>
+        <v>2.133787671419949</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>25.4967962975218</v>
+        <v>9.14356779380174</v>
       </c>
       <c r="F76">
-        <v>43.2142</v>
+        <v>33.80399999999997</v>
       </c>
       <c r="G76">
-        <v>3.766169144942541</v>
+        <v>3.520579138682235</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>16.03891012677666</v>
+        <v>7.525087877315707</v>
       </c>
       <c r="F77">
-        <v>61.31960000000001</v>
+        <v>66.68150000000007</v>
       </c>
       <c r="G77">
-        <v>4.11609953082513</v>
+        <v>4.199927553130475</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2168,22 +2168,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>17.42133360814174</v>
+        <v>7.713880325743857</v>
       </c>
       <c r="F78">
-        <v>99.07459999999999</v>
+        <v>52.80629999999999</v>
       </c>
       <c r="G78">
-        <v>4.595873101722903</v>
+        <v>3.966630501776186</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2191,22 +2191,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>13.56203763400632</v>
+        <v>7.581946573007931</v>
       </c>
       <c r="F79">
-        <v>115.0226</v>
+        <v>80.50449999999999</v>
       </c>
       <c r="G79">
-        <v>4.745128630794513</v>
+        <v>4.388313083483254</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2214,22 +2214,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>27.04348880002225</v>
+        <v>5.576870486326129</v>
       </c>
       <c r="F80">
-        <v>158.7182</v>
+        <v>13.4757</v>
       </c>
       <c r="G80">
-        <v>5.06713030274645</v>
+        <v>2.600888063497755</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2237,22 +2237,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C81">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E81">
-        <v>15.57825617977681</v>
+        <v>11.01526578681647</v>
       </c>
       <c r="F81">
-        <v>216.005</v>
+        <v>85.98210000000002</v>
       </c>
       <c r="G81">
-        <v>5.375301555564399</v>
+        <v>4.454139135054585</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2260,22 +2260,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C82">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E82">
-        <v>14.31629498716925</v>
+        <v>8.692715109657463</v>
       </c>
       <c r="F82">
-        <v>189.5521</v>
+        <v>119.4853</v>
       </c>
       <c r="G82">
-        <v>5.244663920771984</v>
+        <v>4.783193351252599</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2283,22 +2283,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E83">
-        <v>14.90082732228793</v>
+        <v>8.544807491409404</v>
       </c>
       <c r="F83">
-        <v>89.21610000000001</v>
+        <v>57.3188</v>
       </c>
       <c r="G83">
-        <v>4.491061516572556</v>
+        <v>4.048628667639642</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2306,22 +2306,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C84">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E84">
-        <v>14.40371889215392</v>
+        <v>9.204960114625187</v>
       </c>
       <c r="F84">
-        <v>412.2123</v>
+        <v>11.9994</v>
       </c>
       <c r="G84">
-        <v>6.02153850789471</v>
+        <v>2.484856648537959</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2329,22 +2329,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C85">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>10.10057333208464</v>
+        <v>7.736680665124612</v>
       </c>
       <c r="F85">
-        <v>167.3145</v>
+        <v>109.312</v>
       </c>
       <c r="G85">
-        <v>5.119875274888619</v>
+        <v>4.69420617872605</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2352,22 +2352,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C86">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>9.334242035685341</v>
+        <v>9.348324768308343</v>
       </c>
       <c r="F86">
-        <v>118.1591</v>
+        <v>204.5204999999999</v>
       </c>
       <c r="G86">
-        <v>4.772032021403324</v>
+        <v>5.32066821495749</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2375,22 +2375,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>5.446534220587725</v>
+        <v>6.491867540585763</v>
       </c>
       <c r="F87">
-        <v>70.099</v>
+        <v>118.1418</v>
       </c>
       <c r="G87">
-        <v>4.249908528603558</v>
+        <v>4.771885597923507</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2398,22 +2398,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C88">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <v>18.61070510227305</v>
+        <v>11.69696886298522</v>
       </c>
       <c r="F88">
-        <v>63.56019999999999</v>
+        <v>53.7871</v>
       </c>
       <c r="G88">
-        <v>4.151987488296667</v>
+        <v>3.985033661464977</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2421,22 +2421,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C89">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E89">
-        <v>2.225766708967556</v>
+        <v>6.573445341075474</v>
       </c>
       <c r="F89">
-        <v>121.8924</v>
+        <v>147.3818</v>
       </c>
       <c r="G89">
-        <v>4.803138688358223</v>
+        <v>4.993026498590367</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2444,22 +2444,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C90">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E90">
-        <v>7.487689304349217</v>
+        <v>8.259263936558479</v>
       </c>
       <c r="F90">
-        <v>160.9415</v>
+        <v>37.5551</v>
       </c>
       <c r="G90">
-        <v>5.081040944918122</v>
+        <v>3.625809187895713</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2467,22 +2467,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E91">
-        <v>11.72498313374156</v>
+        <v>5.454610312406809</v>
       </c>
       <c r="F91">
-        <v>53.4038</v>
+        <v>192.3592</v>
       </c>
       <c r="G91">
-        <v>3.977881904483011</v>
+        <v>5.259364457532026</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2490,22 +2490,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>12.32024647784447</v>
+        <v>7.076247200942581</v>
       </c>
       <c r="F92">
-        <v>79.60820000000001</v>
+        <v>81.2825</v>
       </c>
       <c r="G92">
-        <v>4.377117102620026</v>
+        <v>4.397930741231174</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2513,22 +2513,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E93">
-        <v>13.03011789105975</v>
+        <v>10.04224931399291</v>
       </c>
       <c r="F93">
-        <v>281.9879</v>
+        <v>61.58569999999999</v>
       </c>
       <c r="G93">
-        <v>5.641864162216129</v>
+        <v>4.120429700733007</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2536,22 +2536,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>13.10790329081541</v>
+        <v>6.703763437805576</v>
       </c>
       <c r="F94">
-        <v>137.0946</v>
+        <v>45.1567</v>
       </c>
       <c r="G94">
-        <v>4.920671198484034</v>
+        <v>3.810138663095076</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2559,22 +2559,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C95">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>12.88186787685873</v>
+        <v>4.762672242224308</v>
       </c>
       <c r="F95">
-        <v>149.4577</v>
+        <v>143.5005000000001</v>
       </c>
       <c r="G95">
-        <v>5.007013409650965</v>
+        <v>4.966338519514164</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2582,22 +2582,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>9.147100609773819</v>
+        <v>3.095987526983857</v>
       </c>
       <c r="F96">
-        <v>153.5565</v>
+        <v>167.9443</v>
       </c>
       <c r="G96">
-        <v>5.034068577478994</v>
+        <v>5.123632376810148</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2605,22 +2605,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C97">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>22.05898719880597</v>
+        <v>8.073901628955353</v>
       </c>
       <c r="F97">
-        <v>78.71169999999998</v>
+        <v>204.0233</v>
       </c>
       <c r="G97">
-        <v>4.365791810193257</v>
+        <v>5.318234203008376</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2628,22 +2628,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>8.178189795239998</v>
+        <v>6.064865155994274</v>
       </c>
       <c r="F98">
-        <v>117.578</v>
+        <v>94.67599999999997</v>
       </c>
       <c r="G98">
-        <v>4.767101943133916</v>
+        <v>4.550460536182564</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2651,22 +2651,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C99">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>11.53613566998474</v>
+        <v>6.635981299232818</v>
       </c>
       <c r="F99">
-        <v>352.2523</v>
+        <v>173.6864</v>
       </c>
       <c r="G99">
-        <v>5.864347680210986</v>
+        <v>5.157251374269282</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2674,22 +2674,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>9.094091628423238</v>
+        <v>6.372077026605698</v>
       </c>
       <c r="F100">
-        <v>93.8301</v>
+        <v>52.0758</v>
       </c>
       <c r="G100">
-        <v>4.541485700058611</v>
+        <v>3.952700349487027</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2697,22 +2697,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101">
-        <v>8.699198868236063</v>
+        <v>6.901031772418647</v>
       </c>
       <c r="F101">
-        <v>85.0343</v>
+        <v>305.5509999999999</v>
       </c>
       <c r="G101">
-        <v>4.443054704505984</v>
+        <v>5.722116704122347</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2720,22 +2720,22 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C102">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>8.48420789654233</v>
+        <v>8.466495126934248</v>
       </c>
       <c r="F102">
-        <v>100.7335</v>
+        <v>174.7332</v>
       </c>
       <c r="G102">
-        <v>4.612478415702582</v>
+        <v>5.163260239153374</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2743,22 +2743,22 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C103">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>11.46752678278714</v>
+        <v>8.919466319630333</v>
       </c>
       <c r="F103">
-        <v>147.3001</v>
+        <v>93.8135</v>
       </c>
       <c r="G103">
-        <v>4.99247200235498</v>
+        <v>4.541308768897161</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2766,22 +2766,22 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C104">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>11.74852963457179</v>
+        <v>7.016502468297869</v>
       </c>
       <c r="F104">
-        <v>121.1956</v>
+        <v>76.60429999999999</v>
       </c>
       <c r="G104">
-        <v>4.797405769345858</v>
+        <v>4.338653210941227</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2789,22 +2789,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C105">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>15.01741120743734</v>
+        <v>4.193501768762057</v>
       </c>
       <c r="F105">
-        <v>239.6704</v>
+        <v>11.7995</v>
       </c>
       <c r="G105">
-        <v>5.479264646122156</v>
+        <v>2.468057157692507</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2812,22 +2812,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C106">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>15.30004742129951</v>
+        <v>18.11683952192893</v>
       </c>
       <c r="F106">
-        <v>92.7355</v>
+        <v>16.9765</v>
       </c>
       <c r="G106">
-        <v>4.529751355034269</v>
+        <v>2.831830034783786</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2835,22 +2835,22 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C107">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E107">
-        <v>21.15792468376722</v>
+        <v>16.39459342873933</v>
       </c>
       <c r="F107">
-        <v>148.6614</v>
+        <v>12.7122</v>
       </c>
       <c r="G107">
-        <v>5.001671236715469</v>
+        <v>2.542562162276163</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2858,22 +2858,22 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C108">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>12.71097281332166</v>
+        <v>13.14228853056053</v>
       </c>
       <c r="F108">
-        <v>181.8022</v>
+        <v>7.5676</v>
       </c>
       <c r="G108">
-        <v>5.202919282880281</v>
+        <v>2.023875976230127</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2881,22 +2881,22 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C109">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E109">
-        <v>22.26673786279014</v>
+        <v>4.732935537513954</v>
       </c>
       <c r="F109">
-        <v>162.884</v>
+        <v>39.116</v>
       </c>
       <c r="G109">
-        <v>5.093038291017394</v>
+        <v>3.666531590450029</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2904,22 +2904,22 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C110">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E110">
-        <v>24.68423745458491</v>
+        <v>7.477521131435365</v>
       </c>
       <c r="F110">
-        <v>97.49670000000002</v>
+        <v>17.02709999999998</v>
       </c>
       <c r="G110">
-        <v>4.579818531277161</v>
+        <v>2.834806192446455</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2927,22 +2927,22 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C111">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E111">
-        <v>7.980311441483169</v>
+        <v>12.8423037422803</v>
       </c>
       <c r="F111">
-        <v>94.42700000000001</v>
+        <v>12.2145</v>
       </c>
       <c r="G111">
-        <v>4.547827049205558</v>
+        <v>2.502623770593158</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2950,22 +2950,22 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C112">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>9.461886175295573</v>
+        <v>7.738348253218916</v>
       </c>
       <c r="F112">
-        <v>84.0215</v>
+        <v>163.2476</v>
       </c>
       <c r="G112">
-        <v>4.431072718474043</v>
+        <v>5.095268066670219</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2973,22 +2973,22 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C113">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>7.573283695994116</v>
+        <v>6.036686669667413</v>
       </c>
       <c r="F113">
-        <v>359.721</v>
+        <v>271.4158</v>
       </c>
       <c r="G113">
-        <v>5.885328730982404</v>
+        <v>5.60365196236063</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2996,22 +2996,22 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C114">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>9.226095863083136</v>
+        <v>5.550774527260953</v>
       </c>
       <c r="F114">
-        <v>74.77809999999999</v>
+        <v>176.508</v>
       </c>
       <c r="G114">
-        <v>4.314525061363117</v>
+        <v>5.173366201125206</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3019,22 +3019,22 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C115">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>10.84239503979799</v>
+        <v>2.576547053696279</v>
       </c>
       <c r="F115">
-        <v>258.1728</v>
+        <v>32.8913</v>
       </c>
       <c r="G115">
-        <v>5.553629128169365</v>
+        <v>3.493208185111546</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3042,22 +3042,22 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>2.355408302586286</v>
+        <v>4.604533581078821</v>
       </c>
       <c r="F116">
-        <v>125.8093</v>
+        <v>77.7159</v>
       </c>
       <c r="G116">
-        <v>4.834767268401928</v>
+        <v>4.353059869643717</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3065,22 +3065,22 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C117">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>25.54723215202756</v>
+        <v>4.410725730935523</v>
       </c>
       <c r="F117">
-        <v>114.5573</v>
+        <v>64.60540000000002</v>
       </c>
       <c r="G117">
-        <v>4.741075134498842</v>
+        <v>4.168297998626265</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3088,22 +3088,22 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C118">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>21.94893368557131</v>
+        <v>5.008806197865224</v>
       </c>
       <c r="F118">
-        <v>71.6254</v>
+        <v>285.7886</v>
       </c>
       <c r="G118">
-        <v>4.271449759661543</v>
+        <v>5.655252376666628</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3111,22 +3111,22 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C119">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>11.07334955566618</v>
+        <v>5.441134370872109</v>
       </c>
       <c r="F119">
-        <v>102.1111</v>
+        <v>109.2644999999999</v>
       </c>
       <c r="G119">
-        <v>4.626061436205534</v>
+        <v>4.693771548280894</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3134,22 +3134,22 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C120">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>11.88841732521326</v>
+        <v>7.272902672014418</v>
       </c>
       <c r="F120">
-        <v>115.3375</v>
+        <v>64.07469999999999</v>
       </c>
       <c r="G120">
-        <v>4.747862612904674</v>
+        <v>4.160049590225908</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3157,22 +3157,22 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C121">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E121">
-        <v>14.31515008406149</v>
+        <v>1.070625072668587</v>
       </c>
       <c r="F121">
-        <v>86.04630000000002</v>
+        <v>26.1374</v>
       </c>
       <c r="G121">
-        <v>4.454885523476269</v>
+        <v>3.263367238826821</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3180,22 +3180,22 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C122">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>19.59524630275981</v>
+        <v>4.507268622759054</v>
       </c>
       <c r="F122">
-        <v>116.9633</v>
+        <v>24.71050000000001</v>
       </c>
       <c r="G122">
-        <v>4.761860210377721</v>
+        <v>3.207228254518584</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3203,22 +3203,22 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C123">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>12.59484169372528</v>
+        <v>3.076292450046231</v>
       </c>
       <c r="F123">
-        <v>170.9653</v>
+        <v>81.35079999999995</v>
       </c>
       <c r="G123">
-        <v>5.141460611934196</v>
+        <v>4.398770667667092</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3226,22 +3226,22 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C124">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D124">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>7.936724596848236</v>
+        <v>3.980575511052577</v>
       </c>
       <c r="F124">
-        <v>221.763</v>
+        <v>188.5571</v>
       </c>
       <c r="G124">
-        <v>5.401609244048562</v>
+        <v>5.239400878789623</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3249,22 +3249,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C125">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D125">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>21.58922562026961</v>
+        <v>9.297932836765471</v>
       </c>
       <c r="F125">
-        <v>108.417</v>
+        <v>39.7784</v>
       </c>
       <c r="G125">
-        <v>4.685984903277811</v>
+        <v>3.683324051400239</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3272,22 +3272,22 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C126">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E126">
-        <v>9.779072714623322</v>
+        <v>3.051328323981361</v>
       </c>
       <c r="F126">
-        <v>127.9831</v>
+        <v>106.2931</v>
       </c>
       <c r="G126">
-        <v>4.851898223952724</v>
+        <v>4.666200372610825</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3295,22 +3295,22 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C127">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E127">
-        <v>8.995342027850779</v>
+        <v>4.758227239145203</v>
       </c>
       <c r="F127">
-        <v>82.3133</v>
+        <v>48.77290000000001</v>
       </c>
       <c r="G127">
-        <v>4.410532698514737</v>
+        <v>3.887174830738619</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3318,22 +3318,22 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C128">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>8.359266750930475</v>
+        <v>4.095262946088554</v>
       </c>
       <c r="F128">
-        <v>123.6353</v>
+        <v>126.9045</v>
       </c>
       <c r="G128">
-        <v>4.817336102953545</v>
+        <v>4.843434835084524</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3341,22 +3341,1425 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C129">
+        <v>14</v>
+      </c>
+      <c r="D129">
+        <v>8</v>
+      </c>
+      <c r="E129">
+        <v>4.132817927311165</v>
+      </c>
+      <c r="F129">
+        <v>55.04660000000002</v>
+      </c>
+      <c r="G129">
+        <v>4.008180099226823</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>3000</v>
+      </c>
+      <c r="C130">
+        <v>14</v>
+      </c>
+      <c r="D130">
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>3.687734294592177</v>
+      </c>
+      <c r="F130">
+        <v>91.02550000000001</v>
+      </c>
+      <c r="G130">
+        <v>4.51113968704284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>3000</v>
+      </c>
+      <c r="C131">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>3.605052019198201</v>
+      </c>
+      <c r="F131">
+        <v>47.89400000000001</v>
+      </c>
+      <c r="G131">
+        <v>3.868990235610726</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>3000</v>
+      </c>
+      <c r="C132">
+        <v>15</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>14.67271197973974</v>
+      </c>
+      <c r="F132">
+        <v>18.5702</v>
+      </c>
+      <c r="G132">
+        <v>2.921558145365853</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>3000</v>
+      </c>
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>3.379065042822609</v>
+      </c>
+      <c r="F133">
+        <v>72.02419999999999</v>
+      </c>
+      <c r="G133">
+        <v>4.277002173654481</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>3000</v>
+      </c>
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>5.261129175406723</v>
+      </c>
+      <c r="F134">
+        <v>160.9755</v>
+      </c>
+      <c r="G134">
+        <v>5.081252179491795</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>3000</v>
+      </c>
+      <c r="C135">
+        <v>15</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>3.656704640419241</v>
+      </c>
+      <c r="F135">
+        <v>87.34139999999999</v>
+      </c>
+      <c r="G135">
+        <v>4.469824577239686</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>3000</v>
+      </c>
+      <c r="C136">
+        <v>15</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>4.108217558954789</v>
+      </c>
+      <c r="F136">
+        <v>50.78120000000001</v>
+      </c>
+      <c r="G136">
+        <v>3.927526207348242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>3000</v>
+      </c>
+      <c r="C137">
+        <v>15</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>8.06876671646757</v>
+      </c>
+      <c r="F137">
+        <v>13.6581</v>
+      </c>
+      <c r="G137">
+        <v>2.614332752228304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>3000</v>
+      </c>
+      <c r="C138">
+        <v>15</v>
+      </c>
+      <c r="D138">
+        <v>7</v>
+      </c>
+      <c r="E138">
+        <v>4.310971011679326</v>
+      </c>
+      <c r="F138">
+        <v>72.63719999999999</v>
+      </c>
+      <c r="G138">
+        <v>4.285477187294605</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>3000</v>
+      </c>
+      <c r="C139">
+        <v>15</v>
+      </c>
+      <c r="D139">
+        <v>8</v>
+      </c>
+      <c r="E139">
+        <v>3.573826230785755</v>
+      </c>
+      <c r="F139">
+        <v>67.09509999999997</v>
+      </c>
+      <c r="G139">
+        <v>4.206111015975836</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>3000</v>
+      </c>
+      <c r="C140">
+        <v>15</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <v>6.585691000504453</v>
+      </c>
+      <c r="F140">
+        <v>11.0194</v>
+      </c>
+      <c r="G140">
+        <v>2.399657355781526</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>3000</v>
+      </c>
+      <c r="C141">
+        <v>16</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>7.761087588846698</v>
+      </c>
+      <c r="F141">
+        <v>83.87229999999997</v>
+      </c>
+      <c r="G141">
+        <v>4.429295404013653</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>3000</v>
+      </c>
+      <c r="C142">
+        <v>16</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>3.389123977244255</v>
+      </c>
+      <c r="F142">
+        <v>106.4755</v>
+      </c>
+      <c r="G142">
+        <v>4.667914911736265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>3000</v>
+      </c>
+      <c r="C143">
+        <v>16</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>4.649723101889768</v>
+      </c>
+      <c r="F143">
+        <v>205.1345999999999</v>
+      </c>
+      <c r="G143">
+        <v>5.323666349046396</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>3000</v>
+      </c>
+      <c r="C144">
+        <v>16</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>7.779413403946918</v>
+      </c>
+      <c r="F144">
+        <v>6.8716</v>
+      </c>
+      <c r="G144">
+        <v>1.927396975770153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>3000</v>
+      </c>
+      <c r="C145">
+        <v>16</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>7.247208649111275</v>
+      </c>
+      <c r="F145">
+        <v>34.83370000000003</v>
+      </c>
+      <c r="G145">
+        <v>3.550585308997145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>3000</v>
+      </c>
+      <c r="C146">
+        <v>16</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>6.716571338535719</v>
+      </c>
+      <c r="F146">
+        <v>11.8659</v>
+      </c>
+      <c r="G146">
+        <v>2.473668740361197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>3000</v>
+      </c>
+      <c r="C147">
+        <v>16</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+      <c r="E147">
+        <v>4.394616811139308</v>
+      </c>
+      <c r="F147">
+        <v>52.60780000000002</v>
+      </c>
+      <c r="G147">
+        <v>3.962864397723326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>3000</v>
+      </c>
+      <c r="C148">
+        <v>16</v>
+      </c>
+      <c r="D148">
+        <v>8</v>
+      </c>
+      <c r="E148">
+        <v>5.745003735089632</v>
+      </c>
+      <c r="F148">
+        <v>48.85620000000001</v>
+      </c>
+      <c r="G148">
+        <v>3.888881289575465</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>3000</v>
+      </c>
+      <c r="C149">
+        <v>16</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>2.532631639017824</v>
+      </c>
+      <c r="F149">
+        <v>13.376</v>
+      </c>
+      <c r="G149">
+        <v>2.593462056342346</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>3000</v>
+      </c>
+      <c r="C150">
+        <v>16</v>
+      </c>
+      <c r="D150">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>5.908509370739187</v>
+      </c>
+      <c r="F150">
+        <v>8.115</v>
+      </c>
+      <c r="G150">
+        <v>2.093714200966554</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>3000</v>
+      </c>
+      <c r="C151">
+        <v>17</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>6.765581262913956</v>
+      </c>
+      <c r="F151">
+        <v>29.0578</v>
+      </c>
+      <c r="G151">
+        <v>3.369286949839309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>3000</v>
+      </c>
+      <c r="C152">
+        <v>17</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>4.388551395238449</v>
+      </c>
+      <c r="F152">
+        <v>67.64180000000002</v>
+      </c>
+      <c r="G152">
+        <v>4.214226135148802</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>3000</v>
+      </c>
+      <c r="C153">
+        <v>17</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>3.773565374663945</v>
+      </c>
+      <c r="F153">
+        <v>89.73070000000001</v>
+      </c>
+      <c r="G153">
+        <v>4.496812962460859</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>3000</v>
+      </c>
+      <c r="C154">
+        <v>17</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>4.011887909146466</v>
+      </c>
+      <c r="F154">
+        <v>95.15730000000001</v>
+      </c>
+      <c r="G154">
+        <v>4.55553131176615</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>3000</v>
+      </c>
+      <c r="C155">
+        <v>17</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>6.120200024434715</v>
+      </c>
+      <c r="F155">
+        <v>137.5245</v>
+      </c>
+      <c r="G155">
+        <v>4.923802083052313</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>3000</v>
+      </c>
+      <c r="C156">
+        <v>17</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>4.600176697105304</v>
+      </c>
+      <c r="F156">
+        <v>45.1233</v>
+      </c>
+      <c r="G156">
+        <v>3.809398742813201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>3000</v>
+      </c>
+      <c r="C157">
+        <v>17</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157">
+        <v>6.608961134033142</v>
+      </c>
+      <c r="F157">
+        <v>95.19139999999999</v>
+      </c>
+      <c r="G157">
+        <v>4.555889601582312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>3000</v>
+      </c>
+      <c r="C158">
+        <v>17</v>
+      </c>
+      <c r="D158">
+        <v>8</v>
+      </c>
+      <c r="E158">
+        <v>3.952352811876337</v>
+      </c>
+      <c r="F158">
+        <v>108.7668</v>
+      </c>
+      <c r="G158">
+        <v>4.689206140796181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>3000</v>
+      </c>
+      <c r="C159">
+        <v>17</v>
+      </c>
+      <c r="D159">
+        <v>9</v>
+      </c>
+      <c r="E159">
+        <v>8.712802889380317</v>
+      </c>
+      <c r="F159">
+        <v>70.97929999999999</v>
+      </c>
+      <c r="G159">
+        <v>4.262388285236782</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>3000</v>
+      </c>
+      <c r="C160">
+        <v>17</v>
+      </c>
+      <c r="D160">
+        <v>10</v>
+      </c>
+      <c r="E160">
+        <v>4.959417601433316</v>
+      </c>
+      <c r="F160">
+        <v>66.09859999999998</v>
+      </c>
+      <c r="G160">
+        <v>4.191147566603083</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>3000</v>
+      </c>
+      <c r="C161">
+        <v>18</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>2.35238515934649</v>
+      </c>
+      <c r="F161">
+        <v>74.97829999999999</v>
+      </c>
+      <c r="G161">
+        <v>4.317198738338012</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>3000</v>
+      </c>
+      <c r="C162">
+        <v>18</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>2.853729948973903</v>
+      </c>
+      <c r="F162">
+        <v>140.414</v>
+      </c>
+      <c r="G162">
+        <v>4.944595201720206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>3000</v>
+      </c>
+      <c r="C163">
+        <v>18</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>2.386487545619942</v>
+      </c>
+      <c r="F163">
+        <v>162.9995</v>
+      </c>
+      <c r="G163">
+        <v>5.093747133317395</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>3000</v>
+      </c>
+      <c r="C164">
+        <v>18</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>3.190047276142429</v>
+      </c>
+      <c r="F164">
+        <v>46.93109999999999</v>
+      </c>
+      <c r="G164">
+        <v>3.848680568696346</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>3000</v>
+      </c>
+      <c r="C165">
+        <v>18</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165">
+        <v>4.364034199163878</v>
+      </c>
+      <c r="F165">
+        <v>52.3745</v>
+      </c>
+      <c r="G165">
+        <v>3.958419831657354</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>3000</v>
+      </c>
+      <c r="C166">
+        <v>18</v>
+      </c>
+      <c r="D166">
+        <v>6</v>
+      </c>
+      <c r="E166">
+        <v>3.186137071036813</v>
+      </c>
+      <c r="F166">
+        <v>52.49099999999999</v>
+      </c>
+      <c r="G166">
+        <v>3.960641726330592</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>3000</v>
+      </c>
+      <c r="C167">
+        <v>18</v>
+      </c>
+      <c r="D167">
+        <v>7</v>
+      </c>
+      <c r="E167">
+        <v>3.038450871464664</v>
+      </c>
+      <c r="F167">
+        <v>120.6146</v>
+      </c>
+      <c r="G167">
+        <v>4.792600338325617</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>3000</v>
+      </c>
+      <c r="C168">
+        <v>18</v>
+      </c>
+      <c r="D168">
+        <v>8</v>
+      </c>
+      <c r="E168">
+        <v>8.665393300224602</v>
+      </c>
+      <c r="F168">
+        <v>30.08689999999999</v>
+      </c>
+      <c r="G168">
+        <v>3.404089861074038</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>3000</v>
+      </c>
+      <c r="C169">
+        <v>18</v>
+      </c>
+      <c r="D169">
+        <v>9</v>
+      </c>
+      <c r="E169">
+        <v>7.471309987969309</v>
+      </c>
+      <c r="F169">
+        <v>29.72300000000002</v>
+      </c>
+      <c r="G169">
+        <v>3.39192115688176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>3000</v>
+      </c>
+      <c r="C170">
+        <v>18</v>
+      </c>
+      <c r="D170">
+        <v>10</v>
+      </c>
+      <c r="E170">
+        <v>2.813294513249073</v>
+      </c>
+      <c r="F170">
+        <v>29.2406</v>
+      </c>
+      <c r="G170">
+        <v>3.37555815450689</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>3000</v>
+      </c>
+      <c r="C171">
+        <v>19</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>7.78481877406089</v>
+      </c>
+      <c r="F171">
+        <v>83.9079</v>
+      </c>
+      <c r="G171">
+        <v>4.429719768754358</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>3000</v>
+      </c>
+      <c r="C172">
+        <v>19</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>6.089292079015795</v>
+      </c>
+      <c r="F172">
+        <v>113.5951</v>
+      </c>
+      <c r="G172">
+        <v>4.732640371553945</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>3000</v>
+      </c>
+      <c r="C173">
+        <v>19</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173">
+        <v>3.575936882860741</v>
+      </c>
+      <c r="F173">
+        <v>187.3123999999999</v>
+      </c>
+      <c r="G173">
+        <v>5.232777811209538</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>3000</v>
+      </c>
+      <c r="C174">
+        <v>19</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174">
+        <v>6.223838624639669</v>
+      </c>
+      <c r="F174">
+        <v>53.8186</v>
+      </c>
+      <c r="G174">
+        <v>3.985619132325717</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>3000</v>
+      </c>
+      <c r="C175">
+        <v>19</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>5.419056723366921</v>
+      </c>
+      <c r="F175">
+        <v>138.0055</v>
+      </c>
+      <c r="G175">
+        <v>4.927293539435476</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>3000</v>
+      </c>
+      <c r="C176">
+        <v>19</v>
+      </c>
+      <c r="D176">
+        <v>6</v>
+      </c>
+      <c r="E176">
+        <v>6.818780101599003</v>
+      </c>
+      <c r="F176">
+        <v>74.9114</v>
+      </c>
+      <c r="G176">
+        <v>4.316306081878731</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>3000</v>
+      </c>
+      <c r="C177">
+        <v>19</v>
+      </c>
+      <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177">
+        <v>4.483160665894721</v>
+      </c>
+      <c r="F177">
+        <v>117.1634</v>
+      </c>
+      <c r="G177">
+        <v>4.76356954168185</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>3000</v>
+      </c>
+      <c r="C178">
+        <v>19</v>
+      </c>
+      <c r="D178">
+        <v>8</v>
+      </c>
+      <c r="E178">
+        <v>3.517895355555947</v>
+      </c>
+      <c r="F178">
+        <v>109.38</v>
+      </c>
+      <c r="G178">
+        <v>4.694828057918627</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>3000</v>
+      </c>
+      <c r="C179">
+        <v>19</v>
+      </c>
+      <c r="D179">
+        <v>9</v>
+      </c>
+      <c r="E179">
+        <v>14.40597606191969</v>
+      </c>
+      <c r="F179">
+        <v>32.1283</v>
+      </c>
+      <c r="G179">
+        <v>3.469737261675071</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>3000</v>
+      </c>
+      <c r="C180">
+        <v>19</v>
+      </c>
+      <c r="D180">
+        <v>10</v>
+      </c>
+      <c r="E180">
+        <v>3.66417814965925</v>
+      </c>
+      <c r="F180">
+        <v>83.52370000000002</v>
+      </c>
+      <c r="G180">
+        <v>4.425130423919362</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>3000</v>
+      </c>
+      <c r="C181">
         <v>20</v>
       </c>
-      <c r="D129">
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>7.300463750464545</v>
+      </c>
+      <c r="F181">
+        <v>30.71810000000001</v>
+      </c>
+      <c r="G181">
+        <v>3.424852057408413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>3000</v>
+      </c>
+      <c r="C182">
+        <v>20</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>3.581052331138435</v>
+      </c>
+      <c r="F182">
+        <v>81.84720000000002</v>
+      </c>
+      <c r="G182">
+        <v>4.404854094313252</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>3000</v>
+      </c>
+      <c r="C183">
+        <v>20</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+      <c r="E183">
+        <v>4.213201422125447</v>
+      </c>
+      <c r="F183">
+        <v>46.2354</v>
+      </c>
+      <c r="G183">
+        <v>3.833745738446704</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>3000</v>
+      </c>
+      <c r="C184">
+        <v>20</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <v>5.599271804086913</v>
+      </c>
+      <c r="F184">
+        <v>45.33819999999999</v>
+      </c>
+      <c r="G184">
+        <v>3.814149944247204</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>3000</v>
+      </c>
+      <c r="C185">
+        <v>20</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="E185">
+        <v>9.131589475112904</v>
+      </c>
+      <c r="F185">
+        <v>28.46099999999999</v>
+      </c>
+      <c r="G185">
+        <v>3.348534729078849</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>3000</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="D186">
+        <v>6</v>
+      </c>
+      <c r="E186">
+        <v>3.0187463067828</v>
+      </c>
+      <c r="F186">
+        <v>13.5419</v>
+      </c>
+      <c r="G186">
+        <v>2.605788582602575</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>3000</v>
+      </c>
+      <c r="C187">
+        <v>20</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+      <c r="E187">
+        <v>4.096694063898378</v>
+      </c>
+      <c r="F187">
+        <v>122.3406</v>
+      </c>
+      <c r="G187">
+        <v>4.806808958167277</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>3000</v>
+      </c>
+      <c r="C188">
+        <v>20</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+      <c r="E188">
+        <v>4.921172084874598</v>
+      </c>
+      <c r="F188">
+        <v>98.67489999999995</v>
+      </c>
+      <c r="G188">
+        <v>4.591830608120476</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>3000</v>
+      </c>
+      <c r="C189">
+        <v>20</v>
+      </c>
+      <c r="D189">
+        <v>9</v>
+      </c>
+      <c r="E189">
+        <v>6.728612806142995</v>
+      </c>
+      <c r="F189">
+        <v>14.4211</v>
+      </c>
+      <c r="G189">
+        <v>2.668692411887768</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>3000</v>
+      </c>
+      <c r="C190">
+        <v>20</v>
+      </c>
+      <c r="D190">
         <v>10</v>
       </c>
-      <c r="E129">
-        <v>7.047554321581943</v>
-      </c>
-      <c r="F129">
-        <v>88.55239999999999</v>
-      </c>
-      <c r="G129">
-        <v>4.483594467193005</v>
+      <c r="E190">
+        <v>4.648590189979688</v>
+      </c>
+      <c r="F190">
+        <v>59.87579999999999</v>
+      </c>
+      <c r="G190">
+        <v>4.092272416810922</v>
       </c>
     </row>
   </sheetData>

--- a/results/resultsDwg.xlsx
+++ b/results/resultsDwg.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,13 +429,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>5.499559799734492</v>
+        <v>5.490635497756981</v>
       </c>
       <c r="F2">
-        <v>110.3084</v>
+        <v>115.7018</v>
       </c>
       <c r="G2">
-        <v>4.70328007929809</v>
+        <v>4.751016191554847</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,13 +452,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>4.862806372923105</v>
+        <v>4.595818712031408</v>
       </c>
       <c r="F3">
-        <v>182.3177</v>
+        <v>197.7015</v>
       </c>
       <c r="G3">
-        <v>5.20575076967576</v>
+        <v>5.286758317401202</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>7.208790910217862</v>
+        <v>5.577025334028068</v>
       </c>
       <c r="F4">
-        <v>179.2462</v>
+        <v>174.6994</v>
       </c>
       <c r="G4">
-        <v>5.188760279812898</v>
+        <v>5.163066782675041</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -544,13 +544,13 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>9.267816989804006</v>
+        <v>8.439347615904953</v>
       </c>
       <c r="F7">
-        <v>83.9725</v>
+        <v>93.31489999999999</v>
       </c>
       <c r="G7">
-        <v>4.430489364290089</v>
+        <v>4.535979794995447</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -774,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>10.0576511745145</v>
+        <v>7.776849876974499</v>
       </c>
       <c r="F17">
-        <v>39.147</v>
+        <v>18.7686</v>
       </c>
       <c r="G17">
-        <v>3.667323791148219</v>
+        <v>2.932185260709575</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -820,13 +820,13 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>4.504491233455119</v>
+        <v>4.334509505842315</v>
       </c>
       <c r="F19">
-        <v>125.4816</v>
+        <v>128.8005</v>
       </c>
       <c r="G19">
-        <v>4.832159134277205</v>
+        <v>4.858264695650296</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1119,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>5.139864235504609</v>
+        <v>5.963969487380744</v>
       </c>
       <c r="F32">
-        <v>45.40479999999999</v>
+        <v>56.35760000000001</v>
       </c>
       <c r="G32">
-        <v>3.815617826330857</v>
+        <v>4.031717102731305</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1142,13 +1142,13 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>4.22699721480902</v>
+        <v>4.25673104069247</v>
       </c>
       <c r="F33">
-        <v>106.1594000000001</v>
+        <v>107.6333</v>
       </c>
       <c r="G33">
-        <v>4.664941738161711</v>
+        <v>4.678730079402668</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1165,13 +1165,13 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <v>5.099697709902927</v>
+        <v>4.984458282867048</v>
       </c>
       <c r="F34">
-        <v>168.9935</v>
+        <v>182.0871</v>
       </c>
       <c r="G34">
-        <v>5.129860252644948</v>
+        <v>5.204485144026584</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1188,13 +1188,13 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>5.240186963098562</v>
+        <v>1.346213943628689</v>
       </c>
       <c r="F35">
-        <v>39.87730000000001</v>
+        <v>30.58490000000001</v>
       </c>
       <c r="G35">
-        <v>3.685807239692351</v>
+        <v>3.420506423112593</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1211,13 +1211,13 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>6.941580343295782</v>
+        <v>5.036533959059705</v>
       </c>
       <c r="F36">
-        <v>73.28540000000001</v>
+        <v>126.7047</v>
       </c>
       <c r="G36">
-        <v>4.294361407607235</v>
+        <v>4.841859182140256</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1231,16 +1231,16 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>3.104546112068172</v>
+        <v>5.107813699821136</v>
       </c>
       <c r="F37">
-        <v>9.973400000000002</v>
+        <v>86.47859999999999</v>
       </c>
       <c r="G37">
-        <v>2.299921548907804</v>
+        <v>4.45989698448576</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1251,19 +1251,19 @@
         <v>3000</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>6.163729553040468</v>
+        <v>7.832162390152051</v>
       </c>
       <c r="F38">
-        <v>12.463</v>
+        <v>21.5409</v>
       </c>
       <c r="G38">
-        <v>2.52276425484424</v>
+        <v>3.069953453585174</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1274,19 +1274,19 @@
         <v>3000</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>5.724250436831811</v>
+        <v>4.471777532449826</v>
       </c>
       <c r="F39">
-        <v>92.63590000000002</v>
+        <v>30.0376</v>
       </c>
       <c r="G39">
-        <v>4.528676755505058</v>
+        <v>3.402449930228914</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1300,16 +1300,16 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>7.335283268065345</v>
+        <v>2.971854457876241</v>
       </c>
       <c r="F40">
-        <v>30.751</v>
+        <v>45.0067</v>
       </c>
       <c r="G40">
-        <v>3.425922514048956</v>
+        <v>3.806811367576358</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1323,16 +1323,16 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>4.569044865771998</v>
+        <v>3.901347251200751</v>
       </c>
       <c r="F41">
-        <v>49.7358</v>
+        <v>77.63359999999999</v>
       </c>
       <c r="G41">
-        <v>3.906724995726846</v>
+        <v>4.352000323166909</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1346,16 +1346,16 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>5.520305980587588</v>
+        <v>3.612523215148189</v>
       </c>
       <c r="F42">
-        <v>48.34210000000002</v>
+        <v>64.30690000000001</v>
       </c>
       <c r="G42">
-        <v>3.878302816615572</v>
+        <v>4.163666934973103</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1369,16 +1369,16 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>3.884676391726787</v>
+        <v>9.985100399075</v>
       </c>
       <c r="F43">
-        <v>53.85239999999999</v>
+        <v>31.2653</v>
       </c>
       <c r="G43">
-        <v>3.986246970854388</v>
+        <v>3.442508856367437</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1392,16 +1392,16 @@
         <v>5</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>4.742593543371395</v>
+        <v>5.62439851839344</v>
       </c>
       <c r="F44">
-        <v>60.85520000000001</v>
+        <v>105.5631</v>
       </c>
       <c r="G44">
-        <v>4.108497271821818</v>
+        <v>4.659308878388456</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1415,16 +1415,16 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>11.33727407175867</v>
+        <v>3.632357268037118</v>
       </c>
       <c r="F45">
-        <v>27.9296</v>
+        <v>90.6602</v>
       </c>
       <c r="G45">
-        <v>3.329687058336451</v>
+        <v>4.507118451554832</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1438,16 +1438,16 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>5.658956414298633</v>
+        <v>5.22782380400701</v>
       </c>
       <c r="F46">
-        <v>56.19200000000001</v>
+        <v>43.9113</v>
       </c>
       <c r="G46">
-        <v>4.028774398012652</v>
+        <v>3.782171690147675</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1458,19 +1458,19 @@
         <v>3000</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>5.355006734611161</v>
+        <v>6.536269697234959</v>
       </c>
       <c r="F47">
-        <v>115.489</v>
+        <v>82.92650000000003</v>
       </c>
       <c r="G47">
-        <v>4.749175287331175</v>
+        <v>4.417954673303827</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1481,19 +1481,19 @@
         <v>3000</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>4.744442981799851</v>
+        <v>4.697187038967536</v>
       </c>
       <c r="F48">
-        <v>17.2925</v>
+        <v>177.487</v>
       </c>
       <c r="G48">
-        <v>2.850272881492603</v>
+        <v>5.178897366796712</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1504,19 +1504,19 @@
         <v>3000</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>7.277304068624027</v>
+        <v>8.20149137866404</v>
       </c>
       <c r="F49">
-        <v>14.6372</v>
+        <v>53.4702</v>
       </c>
       <c r="G49">
-        <v>2.683566233410644</v>
+        <v>3.979124489368831</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1530,16 +1530,16 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>14.07929123932978</v>
+        <v>3.294695545770148</v>
       </c>
       <c r="F50">
-        <v>11.269</v>
+        <v>198.9119</v>
       </c>
       <c r="G50">
-        <v>2.422055592970212</v>
+        <v>5.292862013130069</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1553,16 +1553,16 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>6.536269697234959</v>
+        <v>3.293380330432307</v>
       </c>
       <c r="F51">
-        <v>82.92650000000003</v>
+        <v>78.1306</v>
       </c>
       <c r="G51">
-        <v>4.417954673303827</v>
+        <v>4.358381785487677</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1573,19 +1573,19 @@
         <v>3000</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>5.051255061113135</v>
+        <v>10.5445647746353</v>
       </c>
       <c r="F52">
-        <v>159.6970999999999</v>
+        <v>76.48920000000001</v>
       </c>
       <c r="G52">
-        <v>5.073278896007873</v>
+        <v>4.337149554395566</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1596,19 +1596,19 @@
         <v>3000</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>4.870323963119561</v>
+        <v>4.708466141054448</v>
       </c>
       <c r="F53">
-        <v>15.5999</v>
+        <v>216.9496</v>
       </c>
       <c r="G53">
-        <v>2.747264503978535</v>
+        <v>5.379665068499862</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1619,19 +1619,19 @@
         <v>3000</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>6.72385106450545</v>
+        <v>5.944045103434946</v>
       </c>
       <c r="F54">
-        <v>18.10560000000001</v>
+        <v>254.2748</v>
       </c>
       <c r="G54">
-        <v>2.896221282685057</v>
+        <v>5.538415571961355</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1642,19 +1642,19 @@
         <v>3000</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>8.20149137866404</v>
+        <v>5.248741722769172</v>
       </c>
       <c r="F55">
-        <v>53.4702</v>
+        <v>161.6552</v>
       </c>
       <c r="G55">
-        <v>3.979124489368831</v>
+        <v>5.085465671918824</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1665,19 +1665,19 @@
         <v>3000</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56">
         <v>7</v>
       </c>
       <c r="E56">
-        <v>2.965996351305788</v>
+        <v>6.083234016961745</v>
       </c>
       <c r="F56">
-        <v>191.8604</v>
+        <v>97.0163</v>
       </c>
       <c r="G56">
-        <v>5.256768024241167</v>
+        <v>4.574879005623149</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1688,19 +1688,19 @@
         <v>3000</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="E57">
-        <v>5.462159731913236</v>
+        <v>3.109720465176597</v>
       </c>
       <c r="F57">
-        <v>117.7436</v>
+        <v>39.3308</v>
       </c>
       <c r="G57">
-        <v>4.768509378977766</v>
+        <v>3.672007926943688</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1711,19 +1711,19 @@
         <v>3000</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>9.807141259330017</v>
+        <v>6.120992364347029</v>
       </c>
       <c r="F58">
-        <v>110.078</v>
+        <v>29.67209999999998</v>
       </c>
       <c r="G58">
-        <v>4.701189205415331</v>
+        <v>3.390207210362252</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1734,19 +1734,19 @@
         <v>3000</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59">
-        <v>5.205813624651588</v>
+        <v>4.600783684693208</v>
       </c>
       <c r="F59">
-        <v>200.8036</v>
+        <v>64.78819999999999</v>
       </c>
       <c r="G59">
-        <v>5.302327315943717</v>
+        <v>4.171123488010804</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1757,19 +1757,19 @@
         <v>3000</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60">
-        <v>5.957454014211175</v>
+        <v>8.436612125958417</v>
       </c>
       <c r="F60">
-        <v>250.0266</v>
+        <v>103.3556</v>
       </c>
       <c r="G60">
-        <v>5.521567312202168</v>
+        <v>4.638175469468735</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1780,19 +1780,19 @@
         <v>3000</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>4.129199940350803</v>
+        <v>9.159382194272284</v>
       </c>
       <c r="F61">
-        <v>46.7325</v>
+        <v>37.53879999999999</v>
       </c>
       <c r="G61">
-        <v>3.84443985410435</v>
+        <v>3.625375064744405</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1803,19 +1803,19 @@
         <v>3000</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>5.320384665371931</v>
+        <v>7.224732290082817</v>
       </c>
       <c r="F62">
-        <v>174.168</v>
+        <v>82.69500000000004</v>
       </c>
       <c r="G62">
-        <v>5.160020350643945</v>
+        <v>4.415159140709757</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1826,19 +1826,19 @@
         <v>3000</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>3.491384598927763</v>
+        <v>9.525400799594324</v>
       </c>
       <c r="F63">
-        <v>55.1632</v>
+        <v>27.929</v>
       </c>
       <c r="G63">
-        <v>4.010296064295346</v>
+        <v>3.329665575520912</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1849,19 +1849,19 @@
         <v>3000</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>7.470438293247392</v>
+        <v>5.14494921995135</v>
       </c>
       <c r="F64">
-        <v>75.35880000000004</v>
+        <v>20.34589999999999</v>
       </c>
       <c r="G64">
-        <v>4.322260706574448</v>
+        <v>3.012879417388476</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1872,19 +1872,19 @@
         <v>3000</v>
       </c>
       <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
         <v>7</v>
       </c>
-      <c r="D65">
-        <v>8</v>
-      </c>
       <c r="E65">
-        <v>6.005983580228081</v>
+        <v>13.21678758003801</v>
       </c>
       <c r="F65">
-        <v>60.4577</v>
+        <v>43.89469999999999</v>
       </c>
       <c r="G65">
-        <v>4.101943946947259</v>
+        <v>3.781793583863417</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1895,19 +1895,19 @@
         <v>3000</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>5.545553049698621</v>
+        <v>8.01619335180302</v>
       </c>
       <c r="F66">
-        <v>20.9099</v>
+        <v>113.2129</v>
       </c>
       <c r="G66">
-        <v>3.040222731028341</v>
+        <v>4.729270116873582</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1918,19 +1918,19 @@
         <v>3000</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E67">
-        <v>6.046118125900827</v>
+        <v>5.671207175258513</v>
       </c>
       <c r="F67">
-        <v>46.98129999999996</v>
+        <v>48.10939999999999</v>
       </c>
       <c r="G67">
-        <v>3.849749650197432</v>
+        <v>3.87347758421393</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1941,19 +1941,19 @@
         <v>3000</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>3.761726037138215</v>
+        <v>7.991183339678988</v>
       </c>
       <c r="F68">
-        <v>133.5261</v>
+        <v>63.16109999999998</v>
       </c>
       <c r="G68">
-        <v>4.894296964349548</v>
+        <v>4.145688605321913</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1964,19 +1964,19 @@
         <v>3000</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>6.683991702498807</v>
+        <v>6.858182692471816</v>
       </c>
       <c r="F69">
-        <v>122.0095</v>
+        <v>298.0540000000001</v>
       </c>
       <c r="G69">
-        <v>4.804098910554094</v>
+        <v>5.6972746781429</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1987,19 +1987,19 @@
         <v>3000</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>3.417035060856205</v>
+        <v>5.809286389239481</v>
       </c>
       <c r="F70">
-        <v>90.47809999999996</v>
+        <v>144.9424</v>
       </c>
       <c r="G70">
-        <v>4.505107832471554</v>
+        <v>4.976336422120006</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2010,19 +2010,19 @@
         <v>3000</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>8.421496967200465</v>
+        <v>6.878476270032071</v>
       </c>
       <c r="F71">
-        <v>27.2323</v>
+        <v>44.8085</v>
       </c>
       <c r="G71">
-        <v>3.304403768781517</v>
+        <v>3.80239785356693</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2033,19 +2033,19 @@
         <v>3000</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>6.893371161714028</v>
+        <v>6.163471578836959</v>
       </c>
       <c r="F72">
-        <v>15.4005</v>
+        <v>171.6449</v>
       </c>
       <c r="G72">
-        <v>2.734399976424992</v>
+        <v>5.145427807839814</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2056,19 +2056,19 @@
         <v>3000</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>8.166193052756546</v>
+        <v>8.259263936558479</v>
       </c>
       <c r="F73">
-        <v>28.22850000000001</v>
+        <v>37.5551</v>
       </c>
       <c r="G73">
-        <v>3.340332105890881</v>
+        <v>3.625809187895713</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2079,19 +2079,19 @@
         <v>3000</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E74">
-        <v>2.672106952627844</v>
+        <v>5.422068930154939</v>
       </c>
       <c r="F74">
-        <v>35.0161</v>
+        <v>286.2216999999999</v>
       </c>
       <c r="G74">
-        <v>3.555807955721848</v>
+        <v>5.656766685352198</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2102,19 +2102,19 @@
         <v>3000</v>
       </c>
       <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
         <v>8</v>
       </c>
-      <c r="D75">
-        <v>9</v>
-      </c>
       <c r="E75">
-        <v>8.234281370504281</v>
+        <v>7.335958967029764</v>
       </c>
       <c r="F75">
-        <v>8.4468</v>
+        <v>116.1671</v>
       </c>
       <c r="G75">
-        <v>2.133787671419949</v>
+        <v>4.755029671798108</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2125,19 +2125,19 @@
         <v>3000</v>
       </c>
       <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
         <v>9</v>
       </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
       <c r="E76">
-        <v>9.14356779380174</v>
+        <v>10.9920032185185</v>
       </c>
       <c r="F76">
-        <v>33.80399999999997</v>
+        <v>93.94669999999999</v>
       </c>
       <c r="G76">
-        <v>3.520579138682235</v>
+        <v>4.542727600176049</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2148,19 +2148,19 @@
         <v>3000</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>7.525087877315707</v>
+        <v>7.644830627491032</v>
       </c>
       <c r="F77">
-        <v>66.68150000000007</v>
+        <v>49.3221</v>
       </c>
       <c r="G77">
-        <v>4.199927553130475</v>
+        <v>3.898372256465106</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2171,19 +2171,19 @@
         <v>3000</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>7.713880325743857</v>
+        <v>5.075850390242623</v>
       </c>
       <c r="F78">
-        <v>52.80629999999999</v>
+        <v>124.9136</v>
       </c>
       <c r="G78">
-        <v>3.966630501776186</v>
+        <v>4.827622298313449</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2194,19 +2194,19 @@
         <v>3000</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>7.581946573007931</v>
+        <v>3.334356225503972</v>
       </c>
       <c r="F79">
-        <v>80.50449999999999</v>
+        <v>118.7064999999999</v>
       </c>
       <c r="G79">
-        <v>4.388313083483254</v>
+        <v>4.776654060015258</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2217,19 +2217,19 @@
         <v>3000</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>5.576870486326129</v>
+        <v>9.056343202788264</v>
       </c>
       <c r="F80">
-        <v>13.4757</v>
+        <v>125.1285</v>
       </c>
       <c r="G80">
-        <v>2.600888063497755</v>
+        <v>4.829341209272147</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2240,19 +2240,19 @@
         <v>3000</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>11.01526578681647</v>
+        <v>6.421593784832556</v>
       </c>
       <c r="F81">
-        <v>85.98210000000002</v>
+        <v>47.2468</v>
       </c>
       <c r="G81">
-        <v>4.454139135054585</v>
+        <v>3.855384926778595</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2263,19 +2263,19 @@
         <v>3000</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>8.692715109657463</v>
+        <v>7.181259095435699</v>
       </c>
       <c r="F82">
-        <v>119.4853</v>
+        <v>139.4341</v>
       </c>
       <c r="G82">
-        <v>4.783193351252599</v>
+        <v>4.937592088211018</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2286,19 +2286,19 @@
         <v>3000</v>
       </c>
       <c r="C83">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E83">
-        <v>8.544807491409404</v>
+        <v>7.036378357467937</v>
       </c>
       <c r="F83">
-        <v>57.3188</v>
+        <v>297.27</v>
       </c>
       <c r="G83">
-        <v>4.048628667639642</v>
+        <v>5.694640816738918</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2309,19 +2309,19 @@
         <v>3000</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E84">
-        <v>9.204960114625187</v>
+        <v>7.831046881874357</v>
       </c>
       <c r="F84">
-        <v>11.9994</v>
+        <v>160.1785</v>
       </c>
       <c r="G84">
-        <v>2.484856648537959</v>
+        <v>5.076288818386712</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2332,19 +2332,19 @@
         <v>3000</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>7.736680665124612</v>
+        <v>8.088711412358903</v>
       </c>
       <c r="F85">
-        <v>109.312</v>
+        <v>120.6151</v>
       </c>
       <c r="G85">
-        <v>4.69420617872605</v>
+        <v>4.792604483752155</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2355,19 +2355,19 @@
         <v>3000</v>
       </c>
       <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86">
         <v>10</v>
       </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
       <c r="E86">
-        <v>9.348324768308343</v>
+        <v>6.630571726524173</v>
       </c>
       <c r="F86">
-        <v>204.5204999999999</v>
+        <v>91.39109999999998</v>
       </c>
       <c r="G86">
-        <v>5.32066821495749</v>
+        <v>4.5151480995395</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2378,19 +2378,19 @@
         <v>3000</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>6.491867540585763</v>
+        <v>8.938771675428498</v>
       </c>
       <c r="F87">
-        <v>118.1418</v>
+        <v>121.0131</v>
       </c>
       <c r="G87">
-        <v>4.771885597923507</v>
+        <v>4.795898804199377</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2401,19 +2401,19 @@
         <v>3000</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>11.69696886298522</v>
+        <v>6.681896880982415</v>
       </c>
       <c r="F88">
-        <v>53.7871</v>
+        <v>241.411</v>
       </c>
       <c r="G88">
-        <v>3.985033661464977</v>
+        <v>5.486500875148047</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2424,19 +2424,19 @@
         <v>3000</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>6.573445341075474</v>
+        <v>5.801132157640814</v>
       </c>
       <c r="F89">
-        <v>147.3818</v>
+        <v>170.7331</v>
       </c>
       <c r="G89">
-        <v>4.993026498590367</v>
+        <v>5.14010151844273</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2447,19 +2447,19 @@
         <v>3000</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>8.259263936558479</v>
+        <v>3.197129021948317</v>
       </c>
       <c r="F90">
-        <v>37.5551</v>
+        <v>24.677</v>
       </c>
       <c r="G90">
-        <v>3.625809187895713</v>
+        <v>3.205871635732947</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2470,19 +2470,19 @@
         <v>3000</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>5.454610312406809</v>
+        <v>5.548257245597481</v>
       </c>
       <c r="F91">
-        <v>192.3592</v>
+        <v>58.61499999999999</v>
       </c>
       <c r="G91">
-        <v>5.259364457532026</v>
+        <v>4.070990636523791</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2493,19 +2493,19 @@
         <v>3000</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E92">
-        <v>7.076247200942581</v>
+        <v>3.552848064307707</v>
       </c>
       <c r="F92">
-        <v>81.2825</v>
+        <v>67.974</v>
       </c>
       <c r="G92">
-        <v>4.397930741231174</v>
+        <v>4.219125279119407</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2516,19 +2516,19 @@
         <v>3000</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E93">
-        <v>10.04224931399291</v>
+        <v>4.736868689958255</v>
       </c>
       <c r="F93">
-        <v>61.58569999999999</v>
+        <v>324.3728</v>
       </c>
       <c r="G93">
-        <v>4.120429700733007</v>
+        <v>5.78189347162355</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2539,19 +2539,19 @@
         <v>3000</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>6.703763437805576</v>
+        <v>3.991474063410603</v>
       </c>
       <c r="F94">
-        <v>45.1567</v>
+        <v>84.98559999999999</v>
       </c>
       <c r="G94">
-        <v>3.810138663095076</v>
+        <v>4.442481830373817</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2562,19 +2562,19 @@
         <v>3000</v>
       </c>
       <c r="C95">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>4.762672242224308</v>
+        <v>5.927949719904633</v>
       </c>
       <c r="F95">
-        <v>143.5005000000001</v>
+        <v>71.0115</v>
       </c>
       <c r="G95">
-        <v>4.966338519514164</v>
+        <v>4.262841835756281</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2585,19 +2585,19 @@
         <v>3000</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96">
-        <v>3.095987526983857</v>
+        <v>2.666763817571322</v>
       </c>
       <c r="F96">
-        <v>167.9443</v>
+        <v>91.04199999999996</v>
       </c>
       <c r="G96">
-        <v>5.123632376810148</v>
+        <v>4.511320938502273</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2608,19 +2608,19 @@
         <v>3000</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D97">
         <v>3</v>
       </c>
       <c r="E97">
-        <v>8.073901628955353</v>
+        <v>4.711379083604536</v>
       </c>
       <c r="F97">
-        <v>204.0233</v>
+        <v>139.3355</v>
       </c>
       <c r="G97">
-        <v>5.318234203008376</v>
+        <v>4.936884693974977</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2631,19 +2631,19 @@
         <v>3000</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D98">
         <v>4</v>
       </c>
       <c r="E98">
-        <v>6.064865155994274</v>
+        <v>7.660956341731426</v>
       </c>
       <c r="F98">
-        <v>94.67599999999997</v>
+        <v>56.3073</v>
       </c>
       <c r="G98">
-        <v>4.550460536182564</v>
+        <v>4.030824189262389</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2654,19 +2654,19 @@
         <v>3000</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D99">
         <v>5</v>
       </c>
       <c r="E99">
-        <v>6.635981299232818</v>
+        <v>1.836120566291921</v>
       </c>
       <c r="F99">
-        <v>173.6864</v>
+        <v>59.59350000000001</v>
       </c>
       <c r="G99">
-        <v>5.157251374269282</v>
+        <v>4.087546507721101</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2677,19 +2677,19 @@
         <v>3000</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D100">
         <v>6</v>
       </c>
       <c r="E100">
-        <v>6.372077026605698</v>
+        <v>7.355441241492973</v>
       </c>
       <c r="F100">
-        <v>52.0758</v>
+        <v>40.6417</v>
       </c>
       <c r="G100">
-        <v>3.952700349487027</v>
+        <v>3.704794633104008</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2700,19 +2700,19 @@
         <v>3000</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D101">
         <v>7</v>
       </c>
       <c r="E101">
-        <v>6.901031772418647</v>
+        <v>6.109891460174673</v>
       </c>
       <c r="F101">
-        <v>305.5509999999999</v>
+        <v>91.6058</v>
       </c>
       <c r="G101">
-        <v>5.722116704122347</v>
+        <v>4.517494588452828</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2723,19 +2723,19 @@
         <v>3000</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D102">
         <v>8</v>
       </c>
       <c r="E102">
-        <v>8.466495126934248</v>
+        <v>2.914198993849948</v>
       </c>
       <c r="F102">
-        <v>174.7332</v>
+        <v>87.4242</v>
       </c>
       <c r="G102">
-        <v>5.163260239153374</v>
+        <v>4.470772132206971</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2746,19 +2746,19 @@
         <v>3000</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D103">
         <v>9</v>
       </c>
       <c r="E103">
-        <v>8.919466319630333</v>
+        <v>3.648596978247711</v>
       </c>
       <c r="F103">
-        <v>93.8135</v>
+        <v>59.26199999999998</v>
       </c>
       <c r="G103">
-        <v>4.541308768897161</v>
+        <v>4.081968291154045</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2769,19 +2769,19 @@
         <v>3000</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D104">
         <v>10</v>
       </c>
       <c r="E104">
-        <v>7.016502468297869</v>
+        <v>3.537388322248276</v>
       </c>
       <c r="F104">
-        <v>76.60429999999999</v>
+        <v>59.4943</v>
       </c>
       <c r="G104">
-        <v>4.338653210941227</v>
+        <v>4.085880509643304</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2792,19 +2792,19 @@
         <v>3000</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D105">
         <v>2</v>
       </c>
       <c r="E105">
-        <v>4.193501768762057</v>
+        <v>4.216149259611707</v>
       </c>
       <c r="F105">
-        <v>11.7995</v>
+        <v>50.30030000000001</v>
       </c>
       <c r="G105">
-        <v>2.468057157692507</v>
+        <v>3.918011041302619</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2815,19 +2815,19 @@
         <v>3000</v>
       </c>
       <c r="C106">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D106">
         <v>3</v>
       </c>
       <c r="E106">
-        <v>18.11683952192893</v>
+        <v>5.531389814823514</v>
       </c>
       <c r="F106">
-        <v>16.9765</v>
+        <v>171.6959000000001</v>
       </c>
       <c r="G106">
-        <v>2.831830034783786</v>
+        <v>5.145724888759852</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2838,19 +2838,19 @@
         <v>3000</v>
       </c>
       <c r="C107">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D107">
         <v>4</v>
       </c>
       <c r="E107">
-        <v>16.39459342873933</v>
+        <v>2.240631147334895</v>
       </c>
       <c r="F107">
-        <v>12.7122</v>
+        <v>76.65400000000001</v>
       </c>
       <c r="G107">
-        <v>2.542562162276163</v>
+        <v>4.339301789213885</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2861,19 +2861,19 @@
         <v>3000</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D108">
         <v>5</v>
       </c>
       <c r="E108">
-        <v>13.14228853056053</v>
+        <v>3.752867746762937</v>
       </c>
       <c r="F108">
-        <v>7.5676</v>
+        <v>97.1156</v>
       </c>
       <c r="G108">
-        <v>2.023875976230127</v>
+        <v>4.575902021507301</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2884,19 +2884,19 @@
         <v>3000</v>
       </c>
       <c r="C109">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D109">
         <v>7</v>
       </c>
       <c r="E109">
-        <v>4.732935537513954</v>
+        <v>3.669937880060593</v>
       </c>
       <c r="F109">
-        <v>39.116</v>
+        <v>97.3486</v>
       </c>
       <c r="G109">
-        <v>3.666531590450029</v>
+        <v>4.578298350615673</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2907,19 +2907,19 @@
         <v>3000</v>
       </c>
       <c r="C110">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D110">
         <v>8</v>
       </c>
       <c r="E110">
-        <v>7.477521131435365</v>
+        <v>7.02182802315507</v>
       </c>
       <c r="F110">
-        <v>17.02709999999998</v>
+        <v>25.7227</v>
       </c>
       <c r="G110">
-        <v>2.834806192446455</v>
+        <v>3.247373870531604</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2930,19 +2930,19 @@
         <v>3000</v>
       </c>
       <c r="C111">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>12.8423037422803</v>
+        <v>7.825533572747105</v>
       </c>
       <c r="F111">
-        <v>12.2145</v>
+        <v>66.21470000000001</v>
       </c>
       <c r="G111">
-        <v>2.502623770593158</v>
+        <v>4.192902492673203</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2953,19 +2953,19 @@
         <v>3000</v>
       </c>
       <c r="C112">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>7.738348253218916</v>
+        <v>2.765759934570152</v>
       </c>
       <c r="F112">
-        <v>163.2476</v>
+        <v>117.578</v>
       </c>
       <c r="G112">
-        <v>5.095268066670219</v>
+        <v>4.767101943133916</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2976,19 +2976,19 @@
         <v>3000</v>
       </c>
       <c r="C113">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>6.036686669667413</v>
+        <v>3.886629351495571</v>
       </c>
       <c r="F113">
-        <v>271.4158</v>
+        <v>179.9601</v>
       </c>
       <c r="G113">
-        <v>5.60365196236063</v>
+        <v>5.192735159651857</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2999,19 +2999,19 @@
         <v>3000</v>
       </c>
       <c r="C114">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E114">
-        <v>5.550774527260953</v>
+        <v>2.551119701924093</v>
       </c>
       <c r="F114">
-        <v>176.508</v>
+        <v>69.319</v>
       </c>
       <c r="G114">
-        <v>5.173366201125206</v>
+        <v>4.238719038892227</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3022,19 +3022,19 @@
         <v>3000</v>
       </c>
       <c r="C115">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>2.576547053696279</v>
+        <v>3.959946522512948</v>
       </c>
       <c r="F115">
-        <v>32.8913</v>
+        <v>44.9564</v>
       </c>
       <c r="G115">
-        <v>3.493208185111546</v>
+        <v>3.805693131205191</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3045,19 +3045,19 @@
         <v>3000</v>
       </c>
       <c r="C116">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>4.604533581078821</v>
+        <v>6.074938279143288</v>
       </c>
       <c r="F116">
-        <v>77.7159</v>
+        <v>63.6268</v>
       </c>
       <c r="G116">
-        <v>4.353059869643717</v>
+        <v>4.153034765236719</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3068,19 +3068,19 @@
         <v>3000</v>
       </c>
       <c r="C117">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>4.410725730935523</v>
+        <v>3.900337882014359</v>
       </c>
       <c r="F117">
-        <v>64.60540000000002</v>
+        <v>44.70720000000001</v>
       </c>
       <c r="G117">
-        <v>4.168297998626265</v>
+        <v>3.800134562474031</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3091,19 +3091,19 @@
         <v>3000</v>
       </c>
       <c r="C118">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>5.008806197865224</v>
+        <v>3.204225689075432</v>
       </c>
       <c r="F118">
-        <v>285.7886</v>
+        <v>109.4968</v>
       </c>
       <c r="G118">
-        <v>5.655252376666628</v>
+        <v>4.695895325085242</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3114,19 +3114,19 @@
         <v>3000</v>
       </c>
       <c r="C119">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>5.441134370872109</v>
+        <v>3.801745692937029</v>
       </c>
       <c r="F119">
-        <v>109.2644999999999</v>
+        <v>112.3502</v>
       </c>
       <c r="G119">
-        <v>4.693771548280894</v>
+        <v>4.721620778781067</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3137,19 +3137,19 @@
         <v>3000</v>
       </c>
       <c r="C120">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>7.272902672014418</v>
+        <v>4.751159109134625</v>
       </c>
       <c r="F120">
-        <v>64.07469999999999</v>
+        <v>159.1501</v>
       </c>
       <c r="G120">
-        <v>4.160049590225908</v>
+        <v>5.06984778206595</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3160,19 +3160,19 @@
         <v>3000</v>
       </c>
       <c r="C121">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>1.070625072668587</v>
+        <v>6.583177208152104</v>
       </c>
       <c r="F121">
-        <v>26.1374</v>
+        <v>47.5461</v>
       </c>
       <c r="G121">
-        <v>3.263367238826821</v>
+        <v>3.861699766700218</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3183,19 +3183,19 @@
         <v>3000</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E122">
-        <v>4.507268622759054</v>
+        <v>7.158277572728865</v>
       </c>
       <c r="F122">
-        <v>24.71050000000001</v>
+        <v>122.2911</v>
       </c>
       <c r="G122">
-        <v>3.207228254518584</v>
+        <v>4.806404268172681</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3206,19 +3206,19 @@
         <v>3000</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>3.076292450046231</v>
+        <v>2.841819205113194</v>
       </c>
       <c r="F123">
-        <v>81.35079999999995</v>
+        <v>80.73779999999999</v>
       </c>
       <c r="G123">
-        <v>4.398770667667092</v>
+        <v>4.391206867097159</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3229,19 +3229,19 @@
         <v>3000</v>
       </c>
       <c r="C124">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E124">
-        <v>3.980575511052577</v>
+        <v>6.78812188449014</v>
       </c>
       <c r="F124">
-        <v>188.5571</v>
+        <v>71.4435</v>
       </c>
       <c r="G124">
-        <v>5.239400878789623</v>
+        <v>4.268906927529421</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3252,19 +3252,19 @@
         <v>3000</v>
       </c>
       <c r="C125">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E125">
-        <v>9.297932836765471</v>
+        <v>5.656654734432652</v>
       </c>
       <c r="F125">
-        <v>39.7784</v>
+        <v>54.1663</v>
       </c>
       <c r="G125">
-        <v>3.683324051400239</v>
+        <v>3.992058943848002</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3275,19 +3275,19 @@
         <v>3000</v>
       </c>
       <c r="C126">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>3.051328323981361</v>
+        <v>1.820787705287219</v>
       </c>
       <c r="F126">
-        <v>106.2931</v>
+        <v>82.06379999999999</v>
       </c>
       <c r="G126">
-        <v>4.666200372610825</v>
+        <v>4.407496993521697</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3298,19 +3298,19 @@
         <v>3000</v>
       </c>
       <c r="C127">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>4.758227239145203</v>
+        <v>2.663390438765973</v>
       </c>
       <c r="F127">
-        <v>48.77290000000001</v>
+        <v>156.5622</v>
       </c>
       <c r="G127">
-        <v>3.887174830738619</v>
+        <v>5.053453375109683</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3321,19 +3321,19 @@
         <v>3000</v>
       </c>
       <c r="C128">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D128">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>4.095262946088554</v>
+        <v>2.709301620155606</v>
       </c>
       <c r="F128">
-        <v>126.9045</v>
+        <v>198.8963</v>
       </c>
       <c r="G128">
-        <v>4.843434835084524</v>
+        <v>5.292783583374182</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3344,19 +3344,19 @@
         <v>3000</v>
       </c>
       <c r="C129">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>4.132817927311165</v>
+        <v>1.400109686689995</v>
       </c>
       <c r="F129">
-        <v>55.04660000000002</v>
+        <v>37.5553</v>
       </c>
       <c r="G129">
-        <v>4.008180099226823</v>
+        <v>3.62581451338992</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3367,19 +3367,19 @@
         <v>3000</v>
       </c>
       <c r="C130">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D130">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>3.687734294592177</v>
+        <v>3.577758385665811</v>
       </c>
       <c r="F130">
-        <v>91.02550000000001</v>
+        <v>67.8421</v>
       </c>
       <c r="G130">
-        <v>4.51113968704284</v>
+        <v>4.217182946193225</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3390,19 +3390,19 @@
         <v>3000</v>
       </c>
       <c r="C131">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E131">
-        <v>3.605052019198201</v>
+        <v>2.936071747106545</v>
       </c>
       <c r="F131">
-        <v>47.89400000000001</v>
+        <v>49.4374</v>
       </c>
       <c r="G131">
-        <v>3.868990235610726</v>
+        <v>3.900707222769822</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3413,19 +3413,19 @@
         <v>3000</v>
       </c>
       <c r="C132">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>14.67271197973974</v>
+        <v>3.3233057707882</v>
       </c>
       <c r="F132">
-        <v>18.5702</v>
+        <v>84.78450000000001</v>
       </c>
       <c r="G132">
-        <v>2.921558145365853</v>
+        <v>4.440112743072138</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3436,19 +3436,19 @@
         <v>3000</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>3.379065042822609</v>
+        <v>7.429575558239979</v>
       </c>
       <c r="F133">
-        <v>72.02419999999999</v>
+        <v>105.4299</v>
       </c>
       <c r="G133">
-        <v>4.277002173654481</v>
+        <v>4.658046277091775</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3459,19 +3459,19 @@
         <v>3000</v>
       </c>
       <c r="C134">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>5.261129175406723</v>
+        <v>5.400001562191133</v>
       </c>
       <c r="F134">
-        <v>160.9755</v>
+        <v>115.9016</v>
       </c>
       <c r="G134">
-        <v>5.081252179491795</v>
+        <v>4.752741555254732</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3482,19 +3482,19 @@
         <v>3000</v>
       </c>
       <c r="C135">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>3.656704640419241</v>
+        <v>5.47503920154759</v>
       </c>
       <c r="F135">
-        <v>87.34139999999999</v>
+        <v>143.7164</v>
       </c>
       <c r="G135">
-        <v>4.469824577239686</v>
+        <v>4.967841913225777</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3505,19 +3505,19 @@
         <v>3000</v>
       </c>
       <c r="C136">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E136">
-        <v>4.108217558954789</v>
+        <v>2.295397429377469</v>
       </c>
       <c r="F136">
-        <v>50.78120000000001</v>
+        <v>44.70799999999999</v>
       </c>
       <c r="G136">
-        <v>3.927526207348242</v>
+        <v>3.800152456523365</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3528,19 +3528,19 @@
         <v>3000</v>
       </c>
       <c r="C137">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E137">
-        <v>8.06876671646757</v>
+        <v>5.719412828839752</v>
       </c>
       <c r="F137">
-        <v>13.6581</v>
+        <v>95.9709</v>
       </c>
       <c r="G137">
-        <v>2.614332752228304</v>
+        <v>4.564045020516168</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3551,19 +3551,19 @@
         <v>3000</v>
       </c>
       <c r="C138">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D138">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E138">
-        <v>4.310971011679326</v>
+        <v>6.363847486029097</v>
       </c>
       <c r="F138">
-        <v>72.63719999999999</v>
+        <v>109.346</v>
       </c>
       <c r="G138">
-        <v>4.285477187294605</v>
+        <v>4.694517166664053</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3574,19 +3574,19 @@
         <v>3000</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139">
-        <v>3.573826230785755</v>
+        <v>2.727291045909219</v>
       </c>
       <c r="F139">
-        <v>67.09509999999997</v>
+        <v>86.4117</v>
       </c>
       <c r="G139">
-        <v>4.206111015975836</v>
+        <v>4.459123083308667</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3597,19 +3597,19 @@
         <v>3000</v>
       </c>
       <c r="C140">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D140">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>6.585691000504453</v>
+        <v>2.873560787853596</v>
       </c>
       <c r="F140">
-        <v>11.0194</v>
+        <v>168.0103</v>
       </c>
       <c r="G140">
-        <v>2.399657355781526</v>
+        <v>5.124025287047717</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3620,19 +3620,19 @@
         <v>3000</v>
       </c>
       <c r="C141">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E141">
-        <v>7.761087588846698</v>
+        <v>8.777267912486241</v>
       </c>
       <c r="F141">
-        <v>83.87229999999997</v>
+        <v>75.60829999999999</v>
       </c>
       <c r="G141">
-        <v>4.429295404013653</v>
+        <v>4.325566065518974</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3643,19 +3643,19 @@
         <v>3000</v>
       </c>
       <c r="C142">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E142">
-        <v>3.389123977244255</v>
+        <v>2.332350769942038</v>
       </c>
       <c r="F142">
-        <v>106.4755</v>
+        <v>39.4306</v>
       </c>
       <c r="G142">
-        <v>4.667914911736265</v>
+        <v>3.67454216461373</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3666,19 +3666,19 @@
         <v>3000</v>
       </c>
       <c r="C143">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>4.649723101889768</v>
+        <v>6.787641689453205</v>
       </c>
       <c r="F143">
-        <v>205.1345999999999</v>
+        <v>38.783</v>
       </c>
       <c r="G143">
-        <v>5.323666349046396</v>
+        <v>3.657982006286058</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3689,19 +3689,19 @@
         <v>3000</v>
       </c>
       <c r="C144">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>7.779413403946918</v>
+        <v>4.696861126289303</v>
       </c>
       <c r="F144">
-        <v>6.8716</v>
+        <v>38.16859999999999</v>
       </c>
       <c r="G144">
-        <v>1.927396975770153</v>
+        <v>3.642013188065096</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3712,19 +3712,19 @@
         <v>3000</v>
       </c>
       <c r="C145">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>7.247208649111275</v>
+        <v>6.286347506896599</v>
       </c>
       <c r="F145">
-        <v>34.83370000000003</v>
+        <v>35.3646</v>
       </c>
       <c r="G145">
-        <v>3.550585308997145</v>
+        <v>3.565711319806145</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3735,19 +3735,19 @@
         <v>3000</v>
       </c>
       <c r="C146">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>6.716571338535719</v>
+        <v>5.450893664054985</v>
       </c>
       <c r="F146">
-        <v>11.8659</v>
+        <v>31.11670000000001</v>
       </c>
       <c r="G146">
-        <v>2.473668740361197</v>
+        <v>3.437744652556328</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3758,19 +3758,19 @@
         <v>3000</v>
       </c>
       <c r="C147">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D147">
         <v>7</v>
       </c>
       <c r="E147">
-        <v>4.394616811139308</v>
+        <v>0.9755225761404309</v>
       </c>
       <c r="F147">
-        <v>52.60780000000002</v>
+        <v>48.0436</v>
       </c>
       <c r="G147">
-        <v>3.962864397723326</v>
+        <v>3.872108931956145</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3781,985 +3781,19 @@
         <v>3000</v>
       </c>
       <c r="C148">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D148">
         <v>8</v>
       </c>
       <c r="E148">
-        <v>5.745003735089632</v>
+        <v>5.462111818084199</v>
       </c>
       <c r="F148">
-        <v>48.85620000000001</v>
+        <v>93.84620000000001</v>
       </c>
       <c r="G148">
-        <v>3.888881289575465</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>3000</v>
-      </c>
-      <c r="C149">
-        <v>16</v>
-      </c>
-      <c r="D149">
-        <v>9</v>
-      </c>
-      <c r="E149">
-        <v>2.532631639017824</v>
-      </c>
-      <c r="F149">
-        <v>13.376</v>
-      </c>
-      <c r="G149">
-        <v>2.593462056342346</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>3000</v>
-      </c>
-      <c r="C150">
-        <v>16</v>
-      </c>
-      <c r="D150">
-        <v>10</v>
-      </c>
-      <c r="E150">
-        <v>5.908509370739187</v>
-      </c>
-      <c r="F150">
-        <v>8.115</v>
-      </c>
-      <c r="G150">
-        <v>2.093714200966554</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>3000</v>
-      </c>
-      <c r="C151">
-        <v>17</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <v>6.765581262913956</v>
-      </c>
-      <c r="F151">
-        <v>29.0578</v>
-      </c>
-      <c r="G151">
-        <v>3.369286949839309</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>3000</v>
-      </c>
-      <c r="C152">
-        <v>17</v>
-      </c>
-      <c r="D152">
-        <v>2</v>
-      </c>
-      <c r="E152">
-        <v>4.388551395238449</v>
-      </c>
-      <c r="F152">
-        <v>67.64180000000002</v>
-      </c>
-      <c r="G152">
-        <v>4.214226135148802</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>3000</v>
-      </c>
-      <c r="C153">
-        <v>17</v>
-      </c>
-      <c r="D153">
-        <v>3</v>
-      </c>
-      <c r="E153">
-        <v>3.773565374663945</v>
-      </c>
-      <c r="F153">
-        <v>89.73070000000001</v>
-      </c>
-      <c r="G153">
-        <v>4.496812962460859</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>3000</v>
-      </c>
-      <c r="C154">
-        <v>17</v>
-      </c>
-      <c r="D154">
-        <v>4</v>
-      </c>
-      <c r="E154">
-        <v>4.011887909146466</v>
-      </c>
-      <c r="F154">
-        <v>95.15730000000001</v>
-      </c>
-      <c r="G154">
-        <v>4.55553131176615</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>3000</v>
-      </c>
-      <c r="C155">
-        <v>17</v>
-      </c>
-      <c r="D155">
-        <v>5</v>
-      </c>
-      <c r="E155">
-        <v>6.120200024434715</v>
-      </c>
-      <c r="F155">
-        <v>137.5245</v>
-      </c>
-      <c r="G155">
-        <v>4.923802083052313</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>3000</v>
-      </c>
-      <c r="C156">
-        <v>17</v>
-      </c>
-      <c r="D156">
-        <v>6</v>
-      </c>
-      <c r="E156">
-        <v>4.600176697105304</v>
-      </c>
-      <c r="F156">
-        <v>45.1233</v>
-      </c>
-      <c r="G156">
-        <v>3.809398742813201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>3000</v>
-      </c>
-      <c r="C157">
-        <v>17</v>
-      </c>
-      <c r="D157">
-        <v>7</v>
-      </c>
-      <c r="E157">
-        <v>6.608961134033142</v>
-      </c>
-      <c r="F157">
-        <v>95.19139999999999</v>
-      </c>
-      <c r="G157">
-        <v>4.555889601582312</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>3000</v>
-      </c>
-      <c r="C158">
-        <v>17</v>
-      </c>
-      <c r="D158">
-        <v>8</v>
-      </c>
-      <c r="E158">
-        <v>3.952352811876337</v>
-      </c>
-      <c r="F158">
-        <v>108.7668</v>
-      </c>
-      <c r="G158">
-        <v>4.689206140796181</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>3000</v>
-      </c>
-      <c r="C159">
-        <v>17</v>
-      </c>
-      <c r="D159">
-        <v>9</v>
-      </c>
-      <c r="E159">
-        <v>8.712802889380317</v>
-      </c>
-      <c r="F159">
-        <v>70.97929999999999</v>
-      </c>
-      <c r="G159">
-        <v>4.262388285236782</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>3000</v>
-      </c>
-      <c r="C160">
-        <v>17</v>
-      </c>
-      <c r="D160">
-        <v>10</v>
-      </c>
-      <c r="E160">
-        <v>4.959417601433316</v>
-      </c>
-      <c r="F160">
-        <v>66.09859999999998</v>
-      </c>
-      <c r="G160">
-        <v>4.191147566603083</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>3000</v>
-      </c>
-      <c r="C161">
-        <v>18</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="E161">
-        <v>2.35238515934649</v>
-      </c>
-      <c r="F161">
-        <v>74.97829999999999</v>
-      </c>
-      <c r="G161">
-        <v>4.317198738338012</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>3000</v>
-      </c>
-      <c r="C162">
-        <v>18</v>
-      </c>
-      <c r="D162">
-        <v>2</v>
-      </c>
-      <c r="E162">
-        <v>2.853729948973903</v>
-      </c>
-      <c r="F162">
-        <v>140.414</v>
-      </c>
-      <c r="G162">
-        <v>4.944595201720206</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>3000</v>
-      </c>
-      <c r="C163">
-        <v>18</v>
-      </c>
-      <c r="D163">
-        <v>3</v>
-      </c>
-      <c r="E163">
-        <v>2.386487545619942</v>
-      </c>
-      <c r="F163">
-        <v>162.9995</v>
-      </c>
-      <c r="G163">
-        <v>5.093747133317395</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>3000</v>
-      </c>
-      <c r="C164">
-        <v>18</v>
-      </c>
-      <c r="D164">
-        <v>4</v>
-      </c>
-      <c r="E164">
-        <v>3.190047276142429</v>
-      </c>
-      <c r="F164">
-        <v>46.93109999999999</v>
-      </c>
-      <c r="G164">
-        <v>3.848680568696346</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>3000</v>
-      </c>
-      <c r="C165">
-        <v>18</v>
-      </c>
-      <c r="D165">
-        <v>5</v>
-      </c>
-      <c r="E165">
-        <v>4.364034199163878</v>
-      </c>
-      <c r="F165">
-        <v>52.3745</v>
-      </c>
-      <c r="G165">
-        <v>3.958419831657354</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>3000</v>
-      </c>
-      <c r="C166">
-        <v>18</v>
-      </c>
-      <c r="D166">
-        <v>6</v>
-      </c>
-      <c r="E166">
-        <v>3.186137071036813</v>
-      </c>
-      <c r="F166">
-        <v>52.49099999999999</v>
-      </c>
-      <c r="G166">
-        <v>3.960641726330592</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>3000</v>
-      </c>
-      <c r="C167">
-        <v>18</v>
-      </c>
-      <c r="D167">
-        <v>7</v>
-      </c>
-      <c r="E167">
-        <v>3.038450871464664</v>
-      </c>
-      <c r="F167">
-        <v>120.6146</v>
-      </c>
-      <c r="G167">
-        <v>4.792600338325617</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>3000</v>
-      </c>
-      <c r="C168">
-        <v>18</v>
-      </c>
-      <c r="D168">
-        <v>8</v>
-      </c>
-      <c r="E168">
-        <v>8.665393300224602</v>
-      </c>
-      <c r="F168">
-        <v>30.08689999999999</v>
-      </c>
-      <c r="G168">
-        <v>3.404089861074038</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>3000</v>
-      </c>
-      <c r="C169">
-        <v>18</v>
-      </c>
-      <c r="D169">
-        <v>9</v>
-      </c>
-      <c r="E169">
-        <v>7.471309987969309</v>
-      </c>
-      <c r="F169">
-        <v>29.72300000000002</v>
-      </c>
-      <c r="G169">
-        <v>3.39192115688176</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>3000</v>
-      </c>
-      <c r="C170">
-        <v>18</v>
-      </c>
-      <c r="D170">
-        <v>10</v>
-      </c>
-      <c r="E170">
-        <v>2.813294513249073</v>
-      </c>
-      <c r="F170">
-        <v>29.2406</v>
-      </c>
-      <c r="G170">
-        <v>3.37555815450689</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>3000</v>
-      </c>
-      <c r="C171">
-        <v>19</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
-      <c r="E171">
-        <v>7.78481877406089</v>
-      </c>
-      <c r="F171">
-        <v>83.9079</v>
-      </c>
-      <c r="G171">
-        <v>4.429719768754358</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>3000</v>
-      </c>
-      <c r="C172">
-        <v>19</v>
-      </c>
-      <c r="D172">
-        <v>2</v>
-      </c>
-      <c r="E172">
-        <v>6.089292079015795</v>
-      </c>
-      <c r="F172">
-        <v>113.5951</v>
-      </c>
-      <c r="G172">
-        <v>4.732640371553945</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>3000</v>
-      </c>
-      <c r="C173">
-        <v>19</v>
-      </c>
-      <c r="D173">
-        <v>3</v>
-      </c>
-      <c r="E173">
-        <v>3.575936882860741</v>
-      </c>
-      <c r="F173">
-        <v>187.3123999999999</v>
-      </c>
-      <c r="G173">
-        <v>5.232777811209538</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>3000</v>
-      </c>
-      <c r="C174">
-        <v>19</v>
-      </c>
-      <c r="D174">
-        <v>4</v>
-      </c>
-      <c r="E174">
-        <v>6.223838624639669</v>
-      </c>
-      <c r="F174">
-        <v>53.8186</v>
-      </c>
-      <c r="G174">
-        <v>3.985619132325717</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>3000</v>
-      </c>
-      <c r="C175">
-        <v>19</v>
-      </c>
-      <c r="D175">
-        <v>5</v>
-      </c>
-      <c r="E175">
-        <v>5.419056723366921</v>
-      </c>
-      <c r="F175">
-        <v>138.0055</v>
-      </c>
-      <c r="G175">
-        <v>4.927293539435476</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>3000</v>
-      </c>
-      <c r="C176">
-        <v>19</v>
-      </c>
-      <c r="D176">
-        <v>6</v>
-      </c>
-      <c r="E176">
-        <v>6.818780101599003</v>
-      </c>
-      <c r="F176">
-        <v>74.9114</v>
-      </c>
-      <c r="G176">
-        <v>4.316306081878731</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>3000</v>
-      </c>
-      <c r="C177">
-        <v>19</v>
-      </c>
-      <c r="D177">
-        <v>7</v>
-      </c>
-      <c r="E177">
-        <v>4.483160665894721</v>
-      </c>
-      <c r="F177">
-        <v>117.1634</v>
-      </c>
-      <c r="G177">
-        <v>4.76356954168185</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>3000</v>
-      </c>
-      <c r="C178">
-        <v>19</v>
-      </c>
-      <c r="D178">
-        <v>8</v>
-      </c>
-      <c r="E178">
-        <v>3.517895355555947</v>
-      </c>
-      <c r="F178">
-        <v>109.38</v>
-      </c>
-      <c r="G178">
-        <v>4.694828057918627</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>3000</v>
-      </c>
-      <c r="C179">
-        <v>19</v>
-      </c>
-      <c r="D179">
-        <v>9</v>
-      </c>
-      <c r="E179">
-        <v>14.40597606191969</v>
-      </c>
-      <c r="F179">
-        <v>32.1283</v>
-      </c>
-      <c r="G179">
-        <v>3.469737261675071</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>3000</v>
-      </c>
-      <c r="C180">
-        <v>19</v>
-      </c>
-      <c r="D180">
-        <v>10</v>
-      </c>
-      <c r="E180">
-        <v>3.66417814965925</v>
-      </c>
-      <c r="F180">
-        <v>83.52370000000002</v>
-      </c>
-      <c r="G180">
-        <v>4.425130423919362</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>3000</v>
-      </c>
-      <c r="C181">
-        <v>20</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181">
-        <v>7.300463750464545</v>
-      </c>
-      <c r="F181">
-        <v>30.71810000000001</v>
-      </c>
-      <c r="G181">
-        <v>3.424852057408413</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>3000</v>
-      </c>
-      <c r="C182">
-        <v>20</v>
-      </c>
-      <c r="D182">
-        <v>2</v>
-      </c>
-      <c r="E182">
-        <v>3.581052331138435</v>
-      </c>
-      <c r="F182">
-        <v>81.84720000000002</v>
-      </c>
-      <c r="G182">
-        <v>4.404854094313252</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>3000</v>
-      </c>
-      <c r="C183">
-        <v>20</v>
-      </c>
-      <c r="D183">
-        <v>3</v>
-      </c>
-      <c r="E183">
-        <v>4.213201422125447</v>
-      </c>
-      <c r="F183">
-        <v>46.2354</v>
-      </c>
-      <c r="G183">
-        <v>3.833745738446704</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>3000</v>
-      </c>
-      <c r="C184">
-        <v>20</v>
-      </c>
-      <c r="D184">
-        <v>4</v>
-      </c>
-      <c r="E184">
-        <v>5.599271804086913</v>
-      </c>
-      <c r="F184">
-        <v>45.33819999999999</v>
-      </c>
-      <c r="G184">
-        <v>3.814149944247204</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>3000</v>
-      </c>
-      <c r="C185">
-        <v>20</v>
-      </c>
-      <c r="D185">
-        <v>5</v>
-      </c>
-      <c r="E185">
-        <v>9.131589475112904</v>
-      </c>
-      <c r="F185">
-        <v>28.46099999999999</v>
-      </c>
-      <c r="G185">
-        <v>3.348534729078849</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>3000</v>
-      </c>
-      <c r="C186">
-        <v>20</v>
-      </c>
-      <c r="D186">
-        <v>6</v>
-      </c>
-      <c r="E186">
-        <v>3.0187463067828</v>
-      </c>
-      <c r="F186">
-        <v>13.5419</v>
-      </c>
-      <c r="G186">
-        <v>2.605788582602575</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>3000</v>
-      </c>
-      <c r="C187">
-        <v>20</v>
-      </c>
-      <c r="D187">
-        <v>7</v>
-      </c>
-      <c r="E187">
-        <v>4.096694063898378</v>
-      </c>
-      <c r="F187">
-        <v>122.3406</v>
-      </c>
-      <c r="G187">
-        <v>4.806808958167277</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>3000</v>
-      </c>
-      <c r="C188">
-        <v>20</v>
-      </c>
-      <c r="D188">
-        <v>8</v>
-      </c>
-      <c r="E188">
-        <v>4.921172084874598</v>
-      </c>
-      <c r="F188">
-        <v>98.67489999999995</v>
-      </c>
-      <c r="G188">
-        <v>4.591830608120476</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>3000</v>
-      </c>
-      <c r="C189">
-        <v>20</v>
-      </c>
-      <c r="D189">
-        <v>9</v>
-      </c>
-      <c r="E189">
-        <v>6.728612806142995</v>
-      </c>
-      <c r="F189">
-        <v>14.4211</v>
-      </c>
-      <c r="G189">
-        <v>2.668692411887768</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>3000</v>
-      </c>
-      <c r="C190">
-        <v>20</v>
-      </c>
-      <c r="D190">
-        <v>10</v>
-      </c>
-      <c r="E190">
-        <v>4.648590189979688</v>
-      </c>
-      <c r="F190">
-        <v>59.87579999999999</v>
-      </c>
-      <c r="G190">
-        <v>4.092272416810922</v>
+        <v>4.541657272068924</v>
       </c>
     </row>
   </sheetData>

--- a/results/resultsDwg.xlsx
+++ b/results/resultsDwg.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,19 +423,19 @@
         <v>3000</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>7.64454770437619</v>
+        <v>5.490635497756981</v>
       </c>
       <c r="F2">
-        <v>93.5142</v>
+        <v>115.7018</v>
       </c>
       <c r="G2">
-        <v>4.538113296421063</v>
+        <v>4.751016191554847</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -446,19 +446,19 @@
         <v>3000</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>3.035579656043003</v>
+        <v>4.359822818360676</v>
       </c>
       <c r="F3">
-        <v>152.4942</v>
+        <v>210.8451999999999</v>
       </c>
       <c r="G3">
-        <v>5.027126562537316</v>
+        <v>5.351124214934628</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -469,19 +469,19 @@
         <v>3000</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>4.345742707397094</v>
+        <v>6.298207944165414</v>
       </c>
       <c r="F4">
-        <v>248.5319999999999</v>
+        <v>216.0546</v>
       </c>
       <c r="G4">
-        <v>5.515571609882014</v>
+        <v>5.375531153519023</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -492,19 +492,19 @@
         <v>3000</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>7.779413403946918</v>
+        <v>6.738687873765687</v>
       </c>
       <c r="F5">
-        <v>6.8716</v>
+        <v>153.4924</v>
       </c>
       <c r="G5">
-        <v>1.927396975770153</v>
+        <v>5.03365105440087</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -515,19 +515,19 @@
         <v>3000</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>6.872792267179195</v>
+        <v>15.37566223470216</v>
       </c>
       <c r="F6">
-        <v>50.88140000000001</v>
+        <v>49.6541</v>
       </c>
       <c r="G6">
-        <v>3.929497434376587</v>
+        <v>3.905080965128127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -538,19 +538,19 @@
         <v>3000</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>4.958718011194791</v>
+        <v>8.439347615904953</v>
       </c>
       <c r="F7">
-        <v>28.4616</v>
+        <v>93.31489999999999</v>
       </c>
       <c r="G7">
-        <v>3.348555810336558</v>
+        <v>4.535979794995447</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -561,19 +561,19 @@
         <v>3000</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>3.380787711160421</v>
+        <v>5.952741952558664</v>
       </c>
       <c r="F8">
-        <v>107.1888</v>
+        <v>96.15370000000001</v>
       </c>
       <c r="G8">
-        <v>4.674591765566595</v>
+        <v>4.565947952833655</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -584,19 +584,19 @@
         <v>3000</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>3.704526752493355</v>
+        <v>2.387551295565076</v>
       </c>
       <c r="F9">
-        <v>87.02630000000001</v>
+        <v>48.5907</v>
       </c>
       <c r="G9">
-        <v>4.466210371822068</v>
+        <v>3.883432154570474</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -607,19 +607,19 @@
         <v>3000</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>2.532631639017824</v>
+        <v>7.581392153200484</v>
       </c>
       <c r="F10">
-        <v>13.376</v>
+        <v>45.8028</v>
       </c>
       <c r="G10">
-        <v>2.593462056342346</v>
+        <v>3.824345224622628</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -630,19 +630,4228 @@
         <v>3000</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
+        <v>13.14521693838559</v>
+      </c>
+      <c r="F11">
+        <v>41.0215</v>
+      </c>
+      <c r="G11">
+        <v>3.714096319503694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3000</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>10.21325955490269</v>
+      </c>
+      <c r="F12">
+        <v>117.9755</v>
+      </c>
+      <c r="G12">
+        <v>4.770476975789527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3000</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>5.888714435624997</v>
+      </c>
+      <c r="F13">
+        <v>309.8063999999999</v>
+      </c>
+      <c r="G13">
+        <v>5.735947586258733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3000</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>6.289615094785585</v>
+      </c>
+      <c r="F14">
+        <v>341.0163</v>
+      </c>
+      <c r="G14">
+        <v>5.831930276727616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3000</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5.626986961249971</v>
+      </c>
+      <c r="F15">
+        <v>102.4596</v>
+      </c>
+      <c r="G15">
+        <v>4.629468574540914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3000</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>14.02275603607696</v>
+      </c>
+      <c r="F16">
+        <v>124.9963</v>
+      </c>
+      <c r="G16">
+        <v>4.828284136864212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3000</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>10.0576511745145</v>
+      </c>
+      <c r="F17">
+        <v>39.147</v>
+      </c>
+      <c r="G17">
+        <v>3.667323791148219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3000</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>5.45206934187958</v>
+      </c>
+      <c r="F18">
+        <v>162.7357</v>
+      </c>
+      <c r="G18">
+        <v>5.092127412404991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3000</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>4.334509505842315</v>
+      </c>
+      <c r="F19">
+        <v>128.8005</v>
+      </c>
+      <c r="G19">
+        <v>4.858264695650296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3000</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>10.71997967712378</v>
+      </c>
+      <c r="F20">
+        <v>58.4853</v>
+      </c>
+      <c r="G20">
+        <v>4.068775440609905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3000</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>12.01020739063222</v>
+      </c>
+      <c r="F21">
+        <v>30.4858</v>
+      </c>
+      <c r="G21">
+        <v>3.417261001429755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>3000</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>8.69765092763909</v>
+      </c>
+      <c r="F22">
+        <v>60.15670000000001</v>
+      </c>
+      <c r="G22">
+        <v>4.09695282441366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3000</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>6.845959030997408</v>
+      </c>
+      <c r="F23">
+        <v>108.3519</v>
+      </c>
+      <c r="G23">
+        <v>4.685384263592347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3000</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>8.072575184504698</v>
+      </c>
+      <c r="F24">
+        <v>96.68560000000001</v>
+      </c>
+      <c r="G24">
+        <v>4.571464477202904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3000</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>7.854056330729034</v>
+      </c>
+      <c r="F25">
+        <v>65.61760000000001</v>
+      </c>
+      <c r="G25">
+        <v>4.183843952648925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3000</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>6.55175804511823</v>
+      </c>
+      <c r="F26">
+        <v>46.7971</v>
+      </c>
+      <c r="G26">
+        <v>3.845821235191675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3000</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>8.05657344684022</v>
+      </c>
+      <c r="F27">
+        <v>24.8924</v>
+      </c>
+      <c r="G27">
+        <v>3.214562535997754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3000</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>7.508297925139551</v>
+      </c>
+      <c r="F28">
+        <v>92.15310000000001</v>
+      </c>
+      <c r="G28">
+        <v>4.523451324353032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3000</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>6.438437642880476</v>
+      </c>
+      <c r="F29">
+        <v>86.91</v>
+      </c>
+      <c r="G29">
+        <v>4.464873100449369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3000</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>5.477645474213253</v>
+      </c>
+      <c r="F30">
+        <v>42.4834</v>
+      </c>
+      <c r="G30">
+        <v>3.749113411395624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3000</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>26.87253961095874</v>
+      </c>
+      <c r="F31">
+        <v>18.5212</v>
+      </c>
+      <c r="G31">
+        <v>2.918916021935355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3000</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>4.107286437252114</v>
+      </c>
+      <c r="F32">
+        <v>114.9068</v>
+      </c>
+      <c r="G32">
+        <v>4.744121365000833</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>3000</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>4.49161026550577</v>
+      </c>
+      <c r="F33">
+        <v>145.8028</v>
+      </c>
+      <c r="G33">
+        <v>4.982255023779731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>3000</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>4.984458282867048</v>
+      </c>
+      <c r="F34">
+        <v>182.0871</v>
+      </c>
+      <c r="G34">
+        <v>5.204485144026584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>3000</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>4.173775458256284</v>
+      </c>
+      <c r="F35">
+        <v>55.50990000000002</v>
+      </c>
+      <c r="G35">
+        <v>4.016561383223237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3000</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>5.036533959059705</v>
+      </c>
+      <c r="F36">
+        <v>126.7047</v>
+      </c>
+      <c r="G36">
+        <v>4.841859182140256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3000</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>3.104546112068172</v>
+      </c>
+      <c r="F37">
+        <v>9.973400000000002</v>
+      </c>
+      <c r="G37">
+        <v>2.299921548907804</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3000</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>3.912118379535019</v>
+      </c>
+      <c r="F38">
+        <v>108.683</v>
+      </c>
+      <c r="G38">
+        <v>4.688435388152137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>3000</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>5.0081073631364</v>
+      </c>
+      <c r="F39">
+        <v>133.3943</v>
+      </c>
+      <c r="G39">
+        <v>4.893309403932947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3000</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6.405193624020545</v>
+      </c>
+      <c r="F40">
+        <v>39.74579999999999</v>
+      </c>
+      <c r="G40">
+        <v>3.682504175140531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3000</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>4.450746561850671</v>
+      </c>
+      <c r="F41">
+        <v>53.61960000000001</v>
+      </c>
+      <c r="G41">
+        <v>3.981914672876967</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>3000</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>4.463578220300954</v>
+      </c>
+      <c r="F42">
+        <v>83.45800000000003</v>
+      </c>
+      <c r="G42">
+        <v>4.42434351130091</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3000</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>3.901347251200751</v>
+      </c>
+      <c r="F43">
+        <v>77.63359999999999</v>
+      </c>
+      <c r="G43">
+        <v>4.352000323166909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3000</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>4.081680048076993</v>
+      </c>
+      <c r="F44">
+        <v>74.94440000000002</v>
+      </c>
+      <c r="G44">
+        <v>4.31674650527954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>3000</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>9.985100399075</v>
+      </c>
+      <c r="F45">
+        <v>31.2653</v>
+      </c>
+      <c r="G45">
+        <v>3.442508856367437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3000</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>6.330995667028185</v>
+      </c>
+      <c r="F46">
+        <v>122.5243</v>
+      </c>
+      <c r="G46">
+        <v>4.80830937765952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3000</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>4.439594923455114</v>
+      </c>
+      <c r="F47">
+        <v>171.6631</v>
+      </c>
+      <c r="G47">
+        <v>5.145533835080759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3000</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>5.972220248915559</v>
+      </c>
+      <c r="F48">
+        <v>54.7814</v>
+      </c>
+      <c r="G48">
+        <v>4.003350720280908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3000</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>6.370471327527585</v>
+      </c>
+      <c r="F49">
+        <v>19.1676</v>
+      </c>
+      <c r="G49">
+        <v>2.953221353601774</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3000</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>14.09285138947423</v>
+      </c>
+      <c r="F50">
+        <v>19.86490000000001</v>
+      </c>
+      <c r="G50">
+        <v>2.988954355274532</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>3000</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>6.536269697234959</v>
+      </c>
+      <c r="F51">
+        <v>82.92650000000003</v>
+      </c>
+      <c r="G51">
+        <v>4.417954673303827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3000</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>4.386458302652379</v>
+      </c>
+      <c r="F52">
+        <v>198.8945</v>
+      </c>
+      <c r="G52">
+        <v>5.292774533391125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3000</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>6.06404102562511</v>
+      </c>
+      <c r="F53">
+        <v>42.8992</v>
+      </c>
+      <c r="G53">
+        <v>3.758853177741447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3000</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>4.309795516130322</v>
+      </c>
+      <c r="F54">
+        <v>41.32269999999998</v>
+      </c>
+      <c r="G54">
+        <v>3.721411985775879</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3000</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>8.20149137866404</v>
+      </c>
+      <c r="F55">
+        <v>53.4702</v>
+      </c>
+      <c r="G55">
+        <v>3.979124489368831</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>3000</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>2.902892260008806</v>
+      </c>
+      <c r="F56">
+        <v>256.7467</v>
+      </c>
+      <c r="G56">
+        <v>5.548089995756253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>3000</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>5.351050235050534</v>
+      </c>
+      <c r="F57">
+        <v>131.5509</v>
+      </c>
+      <c r="G57">
+        <v>4.87939384896803</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>3000</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>2.316750733805512</v>
+      </c>
+      <c r="F58">
+        <v>22.6854</v>
+      </c>
+      <c r="G58">
+        <v>3.121721545757474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>3000</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>2.415126040547003</v>
+      </c>
+      <c r="F59">
+        <v>23.599</v>
+      </c>
+      <c r="G59">
+        <v>3.161204338252452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>3000</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>9.847465493191658</v>
+      </c>
+      <c r="F60">
+        <v>116.0694</v>
+      </c>
+      <c r="G60">
+        <v>4.754188288072779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3000</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>4.404896630578602</v>
+      </c>
+      <c r="F61">
+        <v>266.5540999999999</v>
+      </c>
+      <c r="G61">
+        <v>5.585577224879979</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3000</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>5.894058432161864</v>
+      </c>
+      <c r="F62">
+        <v>291.7803</v>
+      </c>
+      <c r="G62">
+        <v>5.676001121815131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3000</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>3.480363119780497</v>
+      </c>
+      <c r="F63">
+        <v>66.76290000000002</v>
+      </c>
+      <c r="G63">
+        <v>4.201147537035322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3000</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>4.858210929070064</v>
+      </c>
+      <c r="F64">
+        <v>199.4588</v>
+      </c>
+      <c r="G64">
+        <v>5.295607698711766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3000</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>2.836601581655326</v>
+      </c>
+      <c r="F65">
+        <v>108.6668</v>
+      </c>
+      <c r="G65">
+        <v>4.68828631969171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3000</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>5.64252988596503</v>
+      </c>
+      <c r="F66">
+        <v>114.873</v>
+      </c>
+      <c r="G66">
+        <v>4.743827170295782</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>3000</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>4.759140276246952</v>
+      </c>
+      <c r="F67">
+        <v>83.25920000000002</v>
+      </c>
+      <c r="G67">
+        <v>4.421958633265227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>3000</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>6.114175073483251</v>
+      </c>
+      <c r="F68">
+        <v>46.1338</v>
+      </c>
+      <c r="G68">
+        <v>3.831545870071233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>3000</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>6.046214474480069</v>
+      </c>
+      <c r="F69">
+        <v>37.33920000000001</v>
+      </c>
+      <c r="G69">
+        <v>3.620043713138482</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>3000</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>6.046118125900827</v>
+      </c>
+      <c r="F70">
+        <v>46.98129999999996</v>
+      </c>
+      <c r="G70">
+        <v>3.849749650197432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>3000</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>3.5968720878561</v>
+      </c>
+      <c r="F71">
+        <v>142.3878999999999</v>
+      </c>
+      <c r="G71">
+        <v>4.958555023457445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>3000</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>6.903314679821985</v>
+      </c>
+      <c r="F72">
+        <v>136.4797</v>
+      </c>
+      <c r="G72">
+        <v>4.916175885616686</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>3000</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>3.318139404978217</v>
+      </c>
+      <c r="F73">
+        <v>96.12049999999995</v>
+      </c>
+      <c r="G73">
+        <v>4.565602612685782</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>3000</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>6.79986355437445</v>
+      </c>
+      <c r="F74">
+        <v>46.15130000000001</v>
+      </c>
+      <c r="G74">
+        <v>3.831925129566207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>3000</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>6.893371161714028</v>
+      </c>
+      <c r="F75">
+        <v>15.4005</v>
+      </c>
+      <c r="G75">
+        <v>2.734399976424992</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>3000</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>8.166193052756546</v>
+      </c>
+      <c r="F76">
+        <v>28.22850000000001</v>
+      </c>
+      <c r="G76">
+        <v>3.340332105890881</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>3000</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>2.435783294583195</v>
+      </c>
+      <c r="F77">
+        <v>50.4331</v>
+      </c>
+      <c r="G77">
+        <v>3.920647705545769</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>3000</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>6.18180409015345</v>
+      </c>
+      <c r="F78">
+        <v>38.4512</v>
+      </c>
+      <c r="G78">
+        <v>3.64938990482746</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>3000</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>8.912739944560165</v>
+      </c>
+      <c r="F79">
+        <v>48.82289999999999</v>
+      </c>
+      <c r="G79">
+        <v>3.888199465085065</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>3000</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>6.723280142550816</v>
+      </c>
+      <c r="F80">
+        <v>95.35810000000008</v>
+      </c>
+      <c r="G80">
+        <v>4.557639278621901</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>3000</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>6.366876405516522</v>
+      </c>
+      <c r="F81">
+        <v>66.3974</v>
+      </c>
+      <c r="G81">
+        <v>4.195657899089242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>3000</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>6.755747607356781</v>
+      </c>
+      <c r="F82">
+        <v>94.95869999999999</v>
+      </c>
+      <c r="G82">
+        <v>4.553442060232978</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>3000</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>5.127556934580371</v>
+      </c>
+      <c r="F83">
+        <v>31.3318</v>
+      </c>
+      <c r="G83">
+        <v>3.444633556234268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>3000</v>
+      </c>
+      <c r="C84">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="E84">
+        <v>7.577933710906741</v>
+      </c>
+      <c r="F84">
+        <v>169.5055</v>
+      </c>
+      <c r="G84">
+        <v>5.132885374671649</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>3000</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>8.173531604609829</v>
+      </c>
+      <c r="F85">
+        <v>134.321</v>
+      </c>
+      <c r="G85">
+        <v>4.900232457649255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>3000</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>7.731535590035531</v>
+      </c>
+      <c r="F86">
+        <v>66.14749999999999</v>
+      </c>
+      <c r="G86">
+        <v>4.191887096951859</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>3000</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>7.786808331179544</v>
+      </c>
+      <c r="F87">
+        <v>48.17749999999999</v>
+      </c>
+      <c r="G87">
+        <v>3.874892107089939</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>3000</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>7.753430201736997</v>
+      </c>
+      <c r="F88">
+        <v>117.5103</v>
+      </c>
+      <c r="G88">
+        <v>4.766525989316806</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>3000</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>7.122859346018731</v>
+      </c>
+      <c r="F89">
+        <v>314.1512</v>
+      </c>
+      <c r="G89">
+        <v>5.749874398672952</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>3000</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>5.809286389239481</v>
+      </c>
+      <c r="F90">
+        <v>144.9424</v>
+      </c>
+      <c r="G90">
+        <v>4.976336422120006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>3000</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>10.84505715843593</v>
+      </c>
+      <c r="F91">
+        <v>62.20099999999999</v>
+      </c>
+      <c r="G91">
+        <v>4.130371076786315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>3000</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>6.163471578836959</v>
+      </c>
+      <c r="F92">
+        <v>171.6449</v>
+      </c>
+      <c r="G92">
+        <v>5.145427807839814</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>3000</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>5.16619683988448</v>
+      </c>
+      <c r="F93">
+        <v>87.6564</v>
+      </c>
+      <c r="G93">
+        <v>4.473424626385553</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>3000</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>4.827668842261132</v>
+      </c>
+      <c r="F94">
+        <v>331.7093999999999</v>
+      </c>
+      <c r="G94">
+        <v>5.804259284411884</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>3000</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>7.503509009914945</v>
+      </c>
+      <c r="F95">
+        <v>132.6956</v>
+      </c>
+      <c r="G95">
+        <v>4.888057783290324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>3000</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>10.01806109611269</v>
+      </c>
+      <c r="F96">
+        <v>110.6576</v>
+      </c>
+      <c r="G96">
+        <v>4.706440749181277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>3000</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>7.644830627491032</v>
+      </c>
+      <c r="F97">
+        <v>49.3221</v>
+      </c>
+      <c r="G97">
+        <v>3.898372256465106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>3000</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>4.808874778463918</v>
+      </c>
+      <c r="F98">
+        <v>172.3428000000001</v>
+      </c>
+      <c r="G98">
+        <v>5.149485516633337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>3000</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>2.707076383672965</v>
+      </c>
+      <c r="F99">
+        <v>221.1492</v>
+      </c>
+      <c r="G99">
+        <v>5.398837586853576</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>3000</v>
+      </c>
+      <c r="C100">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>8.026007964281655</v>
+      </c>
+      <c r="F100">
+        <v>217.4983</v>
+      </c>
+      <c r="G100">
+        <v>5.382191034406239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>3000</v>
+      </c>
+      <c r="C101">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>5.805169797419699</v>
+      </c>
+      <c r="F101">
+        <v>102.7742</v>
+      </c>
+      <c r="G101">
+        <v>4.632534348759485</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>3000</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>5.654840884730111</v>
+      </c>
+      <c r="F102">
+        <v>217.5972</v>
+      </c>
+      <c r="G102">
+        <v>5.38264564725194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>3000</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>6.443490071526316</v>
+      </c>
+      <c r="F103">
+        <v>62.1823</v>
+      </c>
+      <c r="G103">
+        <v>4.130070393332172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>3000</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>6.035599907478594</v>
+      </c>
+      <c r="F104">
+        <v>410.0524</v>
+      </c>
+      <c r="G104">
+        <v>6.016284956410055</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>3000</v>
+      </c>
+      <c r="C105">
+        <v>11</v>
+      </c>
+      <c r="D105">
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <v>7.324861651209957</v>
+      </c>
+      <c r="F105">
+        <v>224.2205</v>
+      </c>
+      <c r="G105">
+        <v>5.412629942675686</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>3000</v>
+      </c>
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>8.088711412358903</v>
+      </c>
+      <c r="F106">
+        <v>120.6151</v>
+      </c>
+      <c r="G106">
+        <v>4.792604483752155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>3000</v>
+      </c>
+      <c r="C107">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>6.267223401357029</v>
+      </c>
+      <c r="F107">
+        <v>115.0226</v>
+      </c>
+      <c r="G107">
+        <v>4.745128630794513</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>3000</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>8.66127697879149</v>
+      </c>
+      <c r="F108">
+        <v>19.0187</v>
+      </c>
+      <c r="G108">
+        <v>2.945422705675134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>3000</v>
+      </c>
+      <c r="C109">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>18.11683952192893</v>
+      </c>
+      <c r="F109">
+        <v>16.9765</v>
+      </c>
+      <c r="G109">
+        <v>2.831830034783786</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>3000</v>
+      </c>
+      <c r="C110">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>16.39459342873933</v>
+      </c>
+      <c r="F110">
+        <v>12.7122</v>
+      </c>
+      <c r="G110">
+        <v>2.542562162276163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>3000</v>
+      </c>
+      <c r="C111">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>5.076130553725782</v>
+      </c>
+      <c r="F111">
+        <v>44.07680000000001</v>
+      </c>
+      <c r="G111">
+        <v>3.785933566928187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>3000</v>
+      </c>
+      <c r="C112">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <v>3.674110568051887</v>
+      </c>
+      <c r="F112">
+        <v>68.82129999999999</v>
+      </c>
+      <c r="G112">
+        <v>4.231513290048523</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>3000</v>
+      </c>
+      <c r="C113">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>4.913256268586845</v>
+      </c>
+      <c r="F113">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="G113">
+        <v>3.660994250624401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>3000</v>
+      </c>
+      <c r="C114">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>8.025893197291895</v>
+      </c>
+      <c r="F114">
+        <v>55.213</v>
+      </c>
+      <c r="G114">
+        <v>4.011198432801948</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>3000</v>
+      </c>
+      <c r="C115">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>7.536153382775832</v>
+      </c>
+      <c r="F115">
+        <v>180.2251</v>
+      </c>
+      <c r="G115">
+        <v>5.194206625152466</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>3000</v>
+      </c>
+      <c r="C116">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>5.843295073402709</v>
+      </c>
+      <c r="F116">
+        <v>303.7598</v>
+      </c>
+      <c r="G116">
+        <v>5.716237257508793</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>3000</v>
+      </c>
+      <c r="C117">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>5.002011887152291</v>
+      </c>
+      <c r="F117">
+        <v>211.2927</v>
+      </c>
+      <c r="G117">
+        <v>5.353244375989246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>3000</v>
+      </c>
+      <c r="C118">
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>2.036847915247948</v>
+      </c>
+      <c r="F118">
+        <v>45.96889999999999</v>
+      </c>
+      <c r="G118">
+        <v>3.827965080882723</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>3000</v>
+      </c>
+      <c r="C119">
+        <v>13</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>3.506193414131278</v>
+      </c>
+      <c r="F119">
+        <v>116.2497</v>
+      </c>
+      <c r="G119">
+        <v>4.755740463818975</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>3000</v>
+      </c>
+      <c r="C120">
+        <v>13</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>3.951543798651211</v>
+      </c>
+      <c r="F120">
+        <v>74.96070000000002</v>
+      </c>
+      <c r="G120">
+        <v>4.316963976200332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>3000</v>
+      </c>
+      <c r="C121">
+        <v>13</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>4.5162864240509</v>
+      </c>
+      <c r="F121">
+        <v>342.3457</v>
+      </c>
+      <c r="G121">
+        <v>5.835821045242828</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>3000</v>
+      </c>
+      <c r="C122">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>4.763530008371051</v>
+      </c>
+      <c r="F122">
+        <v>169.7871999999999</v>
+      </c>
+      <c r="G122">
+        <v>5.134545888232522</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>3000</v>
+      </c>
+      <c r="C123">
+        <v>13</v>
+      </c>
+      <c r="D123">
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>6.073959260454129</v>
+      </c>
+      <c r="F123">
+        <v>84.8022</v>
+      </c>
+      <c r="G123">
+        <v>4.440321485857559</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>3000</v>
+      </c>
+      <c r="C124">
+        <v>13</v>
+      </c>
+      <c r="D124">
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>0.9326184645496496</v>
+      </c>
+      <c r="F124">
+        <v>36.1111</v>
+      </c>
+      <c r="G124">
+        <v>3.586600297301163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>3000</v>
+      </c>
+      <c r="C125">
+        <v>14</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>3.445867112740029</v>
+      </c>
+      <c r="F125">
+        <v>57.85170000000001</v>
+      </c>
+      <c r="G125">
+        <v>4.057882839551909</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>3000</v>
+      </c>
+      <c r="C126">
+        <v>14</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>3.098804254867204</v>
+      </c>
+      <c r="F126">
+        <v>112.3006</v>
+      </c>
+      <c r="G126">
+        <v>4.721179204561825</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>3000</v>
+      </c>
+      <c r="C127">
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127">
+        <v>3.595108455795805</v>
+      </c>
+      <c r="F127">
+        <v>223.9882</v>
+      </c>
+      <c r="G127">
+        <v>5.411593371896046</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>3000</v>
+      </c>
+      <c r="C128">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>6.005858254917385</v>
+      </c>
+      <c r="F128">
+        <v>79.95550000000001</v>
+      </c>
+      <c r="G128">
+        <v>4.381470229909456</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>3000</v>
+      </c>
+      <c r="C129">
+        <v>14</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>2.884705809089673</v>
+      </c>
+      <c r="F129">
+        <v>115.3704</v>
+      </c>
+      <c r="G129">
+        <v>4.748147822039021</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>3000</v>
+      </c>
+      <c r="C130">
+        <v>14</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>5.460792793031479</v>
+      </c>
+      <c r="F130">
+        <v>65.01950000000001</v>
+      </c>
+      <c r="G130">
+        <v>4.174687224904635</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>3000</v>
+      </c>
+      <c r="C131">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <v>7</v>
+      </c>
+      <c r="E131">
+        <v>3.292608184393034</v>
+      </c>
+      <c r="F131">
+        <v>217.0827</v>
+      </c>
+      <c r="G131">
+        <v>5.380278386928801</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>3000</v>
+      </c>
+      <c r="C132">
+        <v>14</v>
+      </c>
+      <c r="D132">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <v>2.971812516170271</v>
+      </c>
+      <c r="F132">
+        <v>129.3281</v>
+      </c>
+      <c r="G132">
+        <v>4.862352586218952</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>3000</v>
+      </c>
+      <c r="C133">
+        <v>14</v>
+      </c>
+      <c r="D133">
+        <v>9</v>
+      </c>
+      <c r="E133">
+        <v>3.472007789407772</v>
+      </c>
+      <c r="F133">
+        <v>118.9055</v>
+      </c>
+      <c r="G133">
+        <v>4.778329059986023</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>3000</v>
+      </c>
+      <c r="C134">
+        <v>14</v>
+      </c>
+      <c r="D134">
+        <v>10</v>
+      </c>
+      <c r="E134">
+        <v>3.537388322248276</v>
+      </c>
+      <c r="F134">
+        <v>59.4943</v>
+      </c>
+      <c r="G134">
+        <v>4.085880509643304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>3000</v>
+      </c>
+      <c r="C135">
+        <v>15</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>14.67271197973974</v>
+      </c>
+      <c r="F135">
+        <v>18.5702</v>
+      </c>
+      <c r="G135">
+        <v>2.921558145365853</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>3000</v>
+      </c>
+      <c r="C136">
+        <v>15</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>3.379065042822609</v>
+      </c>
+      <c r="F136">
+        <v>72.02419999999999</v>
+      </c>
+      <c r="G136">
+        <v>4.277002173654481</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>3000</v>
+      </c>
+      <c r="C137">
+        <v>15</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>4.910391702407825</v>
+      </c>
+      <c r="F137">
+        <v>212.1384000000001</v>
+      </c>
+      <c r="G137">
+        <v>5.357238891859762</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>3000</v>
+      </c>
+      <c r="C138">
+        <v>15</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+      <c r="E138">
+        <v>5.448381246573575</v>
+      </c>
+      <c r="F138">
+        <v>96.17019999999999</v>
+      </c>
+      <c r="G138">
+        <v>4.566119538372846</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>3000</v>
+      </c>
+      <c r="C139">
+        <v>15</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>4.473270681763076</v>
+      </c>
+      <c r="F139">
+        <v>102.7747</v>
+      </c>
+      <c r="G139">
+        <v>4.632539213781871</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>3000</v>
+      </c>
+      <c r="C140">
+        <v>15</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>8.06876671646757</v>
+      </c>
+      <c r="F140">
+        <v>13.6581</v>
+      </c>
+      <c r="G140">
+        <v>2.614332752228304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>3000</v>
+      </c>
+      <c r="C141">
+        <v>15</v>
+      </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
+      <c r="E141">
+        <v>2.849533379265635</v>
+      </c>
+      <c r="F141">
+        <v>148.8104</v>
+      </c>
+      <c r="G141">
+        <v>5.002673012429744</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>3000</v>
+      </c>
+      <c r="C142">
+        <v>15</v>
+      </c>
+      <c r="D142">
+        <v>8</v>
+      </c>
+      <c r="E142">
+        <v>3.095448137457609</v>
+      </c>
+      <c r="F142">
+        <v>95.97059999999996</v>
+      </c>
+      <c r="G142">
+        <v>4.564041894563728</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>3000</v>
+      </c>
+      <c r="C143">
+        <v>15</v>
+      </c>
+      <c r="D143">
+        <v>9</v>
+      </c>
+      <c r="E143">
+        <v>4.861348118301915</v>
+      </c>
+      <c r="F143">
+        <v>25.1921</v>
+      </c>
+      <c r="G143">
+        <v>3.226530453304977</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>3000</v>
+      </c>
+      <c r="C144">
+        <v>15</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>3.084714661620638</v>
+      </c>
+      <c r="F144">
+        <v>17.923</v>
+      </c>
+      <c r="G144">
+        <v>2.88608480424946</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>3000</v>
+      </c>
+      <c r="C145">
+        <v>16</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>7.64454770437619</v>
+      </c>
+      <c r="F145">
+        <v>93.5142</v>
+      </c>
+      <c r="G145">
+        <v>4.538113296421063</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>3000</v>
+      </c>
+      <c r="C146">
+        <v>16</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>3.035579656043003</v>
+      </c>
+      <c r="F146">
+        <v>152.4942</v>
+      </c>
+      <c r="G146">
+        <v>5.027126562537316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>3000</v>
+      </c>
+      <c r="C147">
+        <v>16</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>4.345742707397094</v>
+      </c>
+      <c r="F147">
+        <v>248.5319999999999</v>
+      </c>
+      <c r="G147">
+        <v>5.515571609882014</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>3000</v>
+      </c>
+      <c r="C148">
+        <v>16</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>7.779413403946918</v>
+      </c>
+      <c r="F148">
+        <v>6.8716</v>
+      </c>
+      <c r="G148">
+        <v>1.927396975770153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>3000</v>
+      </c>
+      <c r="C149">
+        <v>16</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>6.872792267179195</v>
+      </c>
+      <c r="F149">
+        <v>50.88140000000001</v>
+      </c>
+      <c r="G149">
+        <v>3.929497434376587</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>3000</v>
+      </c>
+      <c r="C150">
+        <v>16</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>4.958718011194791</v>
+      </c>
+      <c r="F150">
+        <v>28.4616</v>
+      </c>
+      <c r="G150">
+        <v>3.348555810336558</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>3000</v>
+      </c>
+      <c r="C151">
+        <v>16</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+      <c r="E151">
+        <v>3.380787711160421</v>
+      </c>
+      <c r="F151">
+        <v>107.1888</v>
+      </c>
+      <c r="G151">
+        <v>4.674591765566595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>3000</v>
+      </c>
+      <c r="C152">
+        <v>16</v>
+      </c>
+      <c r="D152">
+        <v>8</v>
+      </c>
+      <c r="E152">
+        <v>3.704526752493355</v>
+      </c>
+      <c r="F152">
+        <v>87.02630000000001</v>
+      </c>
+      <c r="G152">
+        <v>4.466210371822068</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>3000</v>
+      </c>
+      <c r="C153">
+        <v>16</v>
+      </c>
+      <c r="D153">
+        <v>9</v>
+      </c>
+      <c r="E153">
+        <v>2.532631639017824</v>
+      </c>
+      <c r="F153">
+        <v>13.376</v>
+      </c>
+      <c r="G153">
+        <v>2.593462056342346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>3000</v>
+      </c>
+      <c r="C154">
+        <v>16</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+      <c r="E154">
         <v>4.392454153759375</v>
       </c>
-      <c r="F11">
+      <c r="F154">
         <v>12.2142</v>
       </c>
-      <c r="G11">
+      <c r="G154">
         <v>2.502599209318919</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>3000</v>
+      </c>
+      <c r="C155">
+        <v>17</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>5.658458046100371</v>
+      </c>
+      <c r="F155">
+        <v>81.9645</v>
+      </c>
+      <c r="G155">
+        <v>4.406286226695109</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>3000</v>
+      </c>
+      <c r="C156">
+        <v>17</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>3.144267762132501</v>
+      </c>
+      <c r="F156">
+        <v>119.8835</v>
+      </c>
+      <c r="G156">
+        <v>4.786520437884801</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>3000</v>
+      </c>
+      <c r="C157">
+        <v>17</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>3.610805544576838</v>
+      </c>
+      <c r="F157">
+        <v>131.5184</v>
+      </c>
+      <c r="G157">
+        <v>4.879146765783748</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>3000</v>
+      </c>
+      <c r="C158">
+        <v>17</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158">
+        <v>3.801745692937029</v>
+      </c>
+      <c r="F158">
+        <v>112.3502</v>
+      </c>
+      <c r="G158">
+        <v>4.721620778781067</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>3000</v>
+      </c>
+      <c r="C159">
+        <v>17</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>5.261185487587375</v>
+      </c>
+      <c r="F159">
+        <v>194.6801</v>
+      </c>
+      <c r="G159">
+        <v>5.271357698628569</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>3000</v>
+      </c>
+      <c r="C160">
+        <v>17</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <v>5.061611378077252</v>
+      </c>
+      <c r="F160">
+        <v>69.004</v>
+      </c>
+      <c r="G160">
+        <v>4.234164473931498</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>3000</v>
+      </c>
+      <c r="C161">
+        <v>17</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+      <c r="E161">
+        <v>6.755135573547441</v>
+      </c>
+      <c r="F161">
+        <v>132.1821</v>
+      </c>
+      <c r="G161">
+        <v>4.884180517342339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>3000</v>
+      </c>
+      <c r="C162">
+        <v>17</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+      <c r="E162">
+        <v>4.266162485609716</v>
+      </c>
+      <c r="F162">
+        <v>163.4331</v>
+      </c>
+      <c r="G162">
+        <v>5.096403732290731</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>3000</v>
+      </c>
+      <c r="C163">
+        <v>17</v>
+      </c>
+      <c r="D163">
+        <v>9</v>
+      </c>
+      <c r="E163">
+        <v>7.079219455466638</v>
+      </c>
+      <c r="F163">
+        <v>116.4003</v>
+      </c>
+      <c r="G163">
+        <v>4.757035112613604</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>3000</v>
+      </c>
+      <c r="C164">
+        <v>17</v>
+      </c>
+      <c r="D164">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>6.914391680257657</v>
+      </c>
+      <c r="F164">
+        <v>115.1699</v>
+      </c>
+      <c r="G164">
+        <v>4.746408429398769</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>3000</v>
+      </c>
+      <c r="C165">
+        <v>18</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>2.05051342680598</v>
+      </c>
+      <c r="F165">
+        <v>122.0588</v>
+      </c>
+      <c r="G165">
+        <v>4.80450289583748</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>3000</v>
+      </c>
+      <c r="C166">
+        <v>18</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>2.394646445604967</v>
+      </c>
+      <c r="F166">
+        <v>210.4133</v>
+      </c>
+      <c r="G166">
+        <v>5.349073691793459</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>3000</v>
+      </c>
+      <c r="C167">
+        <v>18</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>2.452610353488936</v>
+      </c>
+      <c r="F167">
+        <v>240.6990000000001</v>
+      </c>
+      <c r="G167">
+        <v>5.483547190231165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>3000</v>
+      </c>
+      <c r="C168">
+        <v>18</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>2.889272543700347</v>
+      </c>
+      <c r="F168">
+        <v>59.67619999999998</v>
+      </c>
+      <c r="G168">
+        <v>4.088933280946047</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>3000</v>
+      </c>
+      <c r="C169">
+        <v>18</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>3.567902558068918</v>
+      </c>
+      <c r="F169">
+        <v>103.6042</v>
+      </c>
+      <c r="G169">
+        <v>4.640577869544178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>3000</v>
+      </c>
+      <c r="C170">
+        <v>18</v>
+      </c>
+      <c r="D170">
+        <v>6</v>
+      </c>
+      <c r="E170">
+        <v>2.896521932367051</v>
+      </c>
+      <c r="F170">
+        <v>83.5575</v>
+      </c>
+      <c r="G170">
+        <v>4.425535017619445</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>3000</v>
+      </c>
+      <c r="C171">
+        <v>18</v>
+      </c>
+      <c r="D171">
+        <v>7</v>
+      </c>
+      <c r="E171">
+        <v>3.207344612639076</v>
+      </c>
+      <c r="F171">
+        <v>141.5909</v>
+      </c>
+      <c r="G171">
+        <v>4.952941913657778</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>3000</v>
+      </c>
+      <c r="C172">
+        <v>18</v>
+      </c>
+      <c r="D172">
+        <v>8</v>
+      </c>
+      <c r="E172">
+        <v>3.994539714071287</v>
+      </c>
+      <c r="F172">
+        <v>73.31789999999999</v>
+      </c>
+      <c r="G172">
+        <v>4.294804780990132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>3000</v>
+      </c>
+      <c r="C173">
+        <v>18</v>
+      </c>
+      <c r="D173">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>6.928719169095323</v>
+      </c>
+      <c r="F173">
+        <v>33.55620000000002</v>
+      </c>
+      <c r="G173">
+        <v>3.513221645152245</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>3000</v>
+      </c>
+      <c r="C174">
+        <v>18</v>
+      </c>
+      <c r="D174">
+        <v>10</v>
+      </c>
+      <c r="E174">
+        <v>2.813294513249073</v>
+      </c>
+      <c r="F174">
+        <v>29.2406</v>
+      </c>
+      <c r="G174">
+        <v>3.37555815450689</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>3000</v>
+      </c>
+      <c r="C175">
+        <v>19</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>6.223399185099778</v>
+      </c>
+      <c r="F175">
+        <v>130.8379</v>
+      </c>
+      <c r="G175">
+        <v>4.873959152403805</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>3000</v>
+      </c>
+      <c r="C176">
+        <v>19</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>6.030592558865415</v>
+      </c>
+      <c r="F176">
+        <v>126.8378</v>
+      </c>
+      <c r="G176">
+        <v>4.842909104833507</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>3000</v>
+      </c>
+      <c r="C177">
+        <v>19</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>4.052066330252688</v>
+      </c>
+      <c r="F177">
+        <v>256.6481999999999</v>
+      </c>
+      <c r="G177">
+        <v>5.547706275539286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>3000</v>
+      </c>
+      <c r="C178">
+        <v>19</v>
+      </c>
+      <c r="D178">
+        <v>4</v>
+      </c>
+      <c r="E178">
+        <v>5.775127638119231</v>
+      </c>
+      <c r="F178">
+        <v>86.27910000000001</v>
+      </c>
+      <c r="G178">
+        <v>4.457587390312169</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>3000</v>
+      </c>
+      <c r="C179">
+        <v>19</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <v>4.459271980881684</v>
+      </c>
+      <c r="F179">
+        <v>192.7034000000001</v>
+      </c>
+      <c r="G179">
+        <v>5.261152219270895</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>3000</v>
+      </c>
+      <c r="C180">
+        <v>19</v>
+      </c>
+      <c r="D180">
+        <v>6</v>
+      </c>
+      <c r="E180">
+        <v>5.049863109731573</v>
+      </c>
+      <c r="F180">
+        <v>163.8779</v>
+      </c>
+      <c r="G180">
+        <v>5.099121638342234</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>3000</v>
+      </c>
+      <c r="C181">
+        <v>19</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
+      </c>
+      <c r="E181">
+        <v>4.83584698829131</v>
+      </c>
+      <c r="F181">
+        <v>206.2973</v>
+      </c>
+      <c r="G181">
+        <v>5.329318332255254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>3000</v>
+      </c>
+      <c r="C182">
+        <v>19</v>
+      </c>
+      <c r="D182">
+        <v>8</v>
+      </c>
+      <c r="E182">
+        <v>2.978470001235237</v>
+      </c>
+      <c r="F182">
+        <v>181.9664999999999</v>
+      </c>
+      <c r="G182">
+        <v>5.203822604200516</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>3000</v>
+      </c>
+      <c r="C183">
+        <v>19</v>
+      </c>
+      <c r="D183">
+        <v>9</v>
+      </c>
+      <c r="E183">
+        <v>8.777267912486241</v>
+      </c>
+      <c r="F183">
+        <v>75.60829999999999</v>
+      </c>
+      <c r="G183">
+        <v>4.325566065518974</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>3000</v>
+      </c>
+      <c r="C184">
+        <v>19</v>
+      </c>
+      <c r="D184">
+        <v>10</v>
+      </c>
+      <c r="E184">
+        <v>3.209778721548973</v>
+      </c>
+      <c r="F184">
+        <v>138.853</v>
+      </c>
+      <c r="G184">
+        <v>4.933415819569095</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>3000</v>
+      </c>
+      <c r="C185">
+        <v>20</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>6.787641689453205</v>
+      </c>
+      <c r="F185">
+        <v>38.783</v>
+      </c>
+      <c r="G185">
+        <v>3.657982006286058</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>3000</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>3.574114342426586</v>
+      </c>
+      <c r="F186">
+        <v>111.2049</v>
+      </c>
+      <c r="G186">
+        <v>4.711374445593861</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>3000</v>
+      </c>
+      <c r="C187">
+        <v>20</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+      <c r="E187">
+        <v>3.298500822700611</v>
+      </c>
+      <c r="F187">
+        <v>93.93069999999997</v>
+      </c>
+      <c r="G187">
+        <v>4.542557276336794</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>3000</v>
+      </c>
+      <c r="C188">
+        <v>20</v>
+      </c>
+      <c r="D188">
+        <v>4</v>
+      </c>
+      <c r="E188">
+        <v>4.522797435189164</v>
+      </c>
+      <c r="F188">
+        <v>66.36500000000001</v>
+      </c>
+      <c r="G188">
+        <v>4.195169809078166</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>3000</v>
+      </c>
+      <c r="C189">
+        <v>20</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>6.262144346642645</v>
+      </c>
+      <c r="F189">
+        <v>59.90950000000001</v>
+      </c>
+      <c r="G189">
+        <v>4.092835090208895</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>3000</v>
+      </c>
+      <c r="C190">
+        <v>20</v>
+      </c>
+      <c r="D190">
+        <v>6</v>
+      </c>
+      <c r="E190">
+        <v>2.830022531485542</v>
+      </c>
+      <c r="F190">
+        <v>27.2167</v>
+      </c>
+      <c r="G190">
+        <v>3.303830755487357</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>3000</v>
+      </c>
+      <c r="C191">
+        <v>20</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <v>3.874587065649539</v>
+      </c>
+      <c r="F191">
+        <v>132.4299</v>
+      </c>
+      <c r="G191">
+        <v>4.886053448822677</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>3000</v>
+      </c>
+      <c r="C192">
+        <v>20</v>
+      </c>
+      <c r="D192">
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <v>4.952400017211904</v>
+      </c>
+      <c r="F192">
+        <v>137.2762</v>
+      </c>
+      <c r="G192">
+        <v>4.921994954703855</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>3000</v>
+      </c>
+      <c r="C193">
+        <v>20</v>
+      </c>
+      <c r="D193">
+        <v>9</v>
+      </c>
+      <c r="E193">
+        <v>4.593497315966568</v>
+      </c>
+      <c r="F193">
+        <v>35.3152</v>
+      </c>
+      <c r="G193">
+        <v>3.564313466160721</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>3000</v>
+      </c>
+      <c r="C194">
+        <v>20</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>4.440045929018628</v>
+      </c>
+      <c r="F194">
+        <v>77.1349</v>
+      </c>
+      <c r="G194">
+        <v>4.345555837034722</v>
       </c>
     </row>
   </sheetData>
